--- a/100runs/run035/NotionalETEOutput035.xlsx
+++ b/100runs/run035/NotionalETEOutput035.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="23">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,6 +49,9 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
@@ -58,13 +61,19 @@
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_180.MISSILE_BRAVER_180</t>
+    <t>MISSILE_SOMERSAULT_195.MISSILE_SOMERSAULT_195</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_272.MISSILE_HIGHWIND_272</t>
+    <t>MISSILE_BRAVER_474.MISSILE_BRAVER_474</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_12.MISSILE_HELLMASKER_12</t>
+    <t>MISSILE_HIGHWIND_155.MISSILE_HIGHWIND_155</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_82.MISSILE_HELLMASKER_82</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -431,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,31 +489,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G2">
-        <v>-43.18146283554469</v>
+        <v>4841120.324248426</v>
       </c>
       <c r="H2">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I2">
-        <v>-2025.16053040198</v>
+        <v>1114864.381881445</v>
       </c>
       <c r="J2">
-        <v>2559.16198046739</v>
+        <v>4843222.630745803</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984364.951115937</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,31 +524,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G3">
-        <v>-43.18146283554469</v>
+        <v>4841120.324248426</v>
       </c>
       <c r="H3">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I3">
-        <v>-1985.178469061329</v>
+        <v>1114893.995958247</v>
       </c>
       <c r="J3">
-        <v>2496.90833301683</v>
+        <v>4843173.979164036</v>
       </c>
       <c r="K3">
-        <v>398.191112788272</v>
+        <v>3984668.746698463</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,31 +559,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G4">
-        <v>-43.18146283554469</v>
+        <v>4841120.324248426</v>
       </c>
       <c r="H4">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I4">
-        <v>-1944.211886242986</v>
+        <v>1114924.339254447</v>
       </c>
       <c r="J4">
-        <v>2434.65468556627</v>
+        <v>4843125.327582267</v>
       </c>
       <c r="K4">
-        <v>776.5265914503856</v>
+        <v>3984957.393640696</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,31 +594,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G5">
-        <v>-43.18146283554469</v>
+        <v>4841120.324248426</v>
       </c>
       <c r="H5">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I5">
-        <v>-1902.236539011307</v>
+        <v>1114955.429726399</v>
       </c>
       <c r="J5">
-        <v>2372.401038115711</v>
+        <v>4843076.6760005</v>
       </c>
       <c r="K5">
-        <v>1135.006435986344</v>
+        <v>3985230.891942634</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,31 +629,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G6">
-        <v>-43.18146283554469</v>
+        <v>4841120.324248426</v>
       </c>
       <c r="H6">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I6">
-        <v>-1859.227587470659</v>
+        <v>1114987.285772621</v>
       </c>
       <c r="J6">
-        <v>2310.147390665151</v>
+        <v>4843028.024418733</v>
       </c>
       <c r="K6">
-        <v>1473.630646396144</v>
+        <v>3985489.241604279</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,31 +664,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G7">
-        <v>-43.18146283554469</v>
+        <v>4841120.324248426</v>
       </c>
       <c r="H7">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I7">
-        <v>-1815.159580065831</v>
+        <v>1115019.926244674</v>
       </c>
       <c r="J7">
-        <v>2247.893743214592</v>
+        <v>4842979.372836966</v>
       </c>
       <c r="K7">
-        <v>1792.399222679789</v>
+        <v>3985732.442625631</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,31 +699,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G8">
-        <v>-43.18146283554469</v>
+        <v>4841120.324248426</v>
       </c>
       <c r="H8">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I8">
-        <v>-1770.006438520484</v>
+        <v>1115053.370458323</v>
       </c>
       <c r="J8">
-        <v>2185.640095764032</v>
+        <v>4842930.721255197</v>
       </c>
       <c r="K8">
-        <v>2091.312164837277</v>
+        <v>3985960.495006688</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,31 +734,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G9">
-        <v>-43.18146283554469</v>
+        <v>4841120.324248426</v>
       </c>
       <c r="H9">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I9">
-        <v>-1723.741442404711</v>
+        <v>1115087.638204964</v>
       </c>
       <c r="J9">
-        <v>2123.386448313472</v>
+        <v>4842882.06967343</v>
       </c>
       <c r="K9">
-        <v>2370.369472868608</v>
+        <v>3986173.398747452</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>99.21072556214396</v>
+        <v>1116577.928887296</v>
       </c>
       <c r="G10">
-        <v>-36.05098784318312</v>
+        <v>4841136.837053177</v>
       </c>
       <c r="H10">
-        <v>599.3686730158554</v>
+        <v>3985228.421615426</v>
       </c>
       <c r="I10">
-        <v>-1676.337213322603</v>
+        <v>1115122.749763341</v>
       </c>
       <c r="J10">
-        <v>2061.132800862913</v>
+        <v>4842833.418091663</v>
       </c>
       <c r="K10">
-        <v>2629.571146773781</v>
+        <v>3986371.153847922</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,31 +804,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>76.99909660812834</v>
+        <v>1116529.248348594</v>
       </c>
       <c r="G11">
-        <v>-28.92051285082155</v>
+        <v>4841153.349857927</v>
       </c>
       <c r="H11">
-        <v>738.4181719702789</v>
+        <v>3985427.676026864</v>
       </c>
       <c r="I11">
-        <v>-1627.765698710439</v>
+        <v>1115158.725911541</v>
       </c>
       <c r="J11">
-        <v>1998.879153412353</v>
+        <v>4842784.766509896</v>
       </c>
       <c r="K11">
-        <v>2868.917186552798</v>
+        <v>3986553.760308099</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,31 +839,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>63.95087885323436</v>
+        <v>1116500.650974185</v>
       </c>
       <c r="G12">
-        <v>-21.79003785845998</v>
+        <v>4841169.86266268</v>
       </c>
       <c r="H12">
-        <v>821.2431648088831</v>
+        <v>3985546.362144574</v>
       </c>
       <c r="I12">
-        <v>-1577.998155235925</v>
+        <v>1115195.587939293</v>
       </c>
       <c r="J12">
-        <v>1936.625505961794</v>
+        <v>4842736.114928127</v>
       </c>
       <c r="K12">
-        <v>3088.407592205659</v>
+        <v>3986721.218127981</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,31 +874,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>55.71388654065771</v>
+        <v>1116482.598213449</v>
       </c>
       <c r="G13">
-        <v>-14.65956286609841</v>
+        <v>4841186.375467431</v>
       </c>
       <c r="H13">
-        <v>880.4325892633723</v>
+        <v>3985631.179091213</v>
       </c>
       <c r="I13">
-        <v>-1527.00513178865</v>
+        <v>1115233.357660566</v>
       </c>
       <c r="J13">
-        <v>1874.371858511234</v>
+        <v>4842687.46334636</v>
       </c>
       <c r="K13">
-        <v>3288.042363732363</v>
+        <v>3986873.52730757</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,31 +909,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>49.9694415377815</v>
+        <v>1116470.008291393</v>
       </c>
       <c r="G14">
-        <v>-7.529087873736837</v>
+        <v>4841202.888272181</v>
       </c>
       <c r="H14">
-        <v>926.5233623753256</v>
+        <v>3985697.226002119</v>
       </c>
       <c r="I14">
-        <v>-1474.756452051709</v>
+        <v>1115272.057426477</v>
       </c>
       <c r="J14">
-        <v>1812.118211060674</v>
+        <v>4842638.811764593</v>
       </c>
       <c r="K14">
-        <v>3467.821501132911</v>
+        <v>3987010.687846866</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,31 +944,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>45.68391353913573</v>
+        <v>1116460.615832513</v>
       </c>
       <c r="G15">
-        <v>-0.3986128813752714</v>
+        <v>4841219.401076933</v>
       </c>
       <c r="H15">
-        <v>964.2752806802566</v>
+        <v>3985751.323545218</v>
       </c>
       <c r="I15">
-        <v>-1421.221196644149</v>
+        <v>1115311.710138521</v>
       </c>
       <c r="J15">
-        <v>1749.864563610115</v>
+        <v>4842590.160182826</v>
       </c>
       <c r="K15">
-        <v>3627.745004407301</v>
+        <v>3987132.699745867</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,31 +979,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>42.33322910043744</v>
+        <v>1116453.272241287</v>
       </c>
       <c r="G16">
-        <v>6.731862110986301</v>
+        <v>4841235.913881684</v>
       </c>
       <c r="H16">
-        <v>996.2483997280622</v>
+        <v>3985797.140215293</v>
       </c>
       <c r="I16">
-        <v>-1366.36768482371</v>
+        <v>1115352.339262119</v>
       </c>
       <c r="J16">
-        <v>1687.610916159555</v>
+        <v>4842541.508601057</v>
       </c>
       <c r="K16">
-        <v>3767.812873555534</v>
+        <v>3987239.563004575</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,31 +1014,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>39.62228141819671</v>
+        <v>1116447.330741281</v>
       </c>
       <c r="G17">
-        <v>13.86233710334787</v>
+        <v>4841252.426686436</v>
       </c>
       <c r="H17">
-        <v>1023.979257329231</v>
+        <v>3985836.877832124</v>
       </c>
       <c r="I17">
-        <v>-1310.163455738998</v>
+        <v>1115393.968840508</v>
       </c>
       <c r="J17">
-        <v>1625.357268708996</v>
+        <v>4842492.85701929</v>
       </c>
       <c r="K17">
-        <v>3888.025108577611</v>
+        <v>3987331.277622989</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,31 +1049,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>37.37122887716328</v>
+        <v>1116442.397179201</v>
       </c>
       <c r="G18">
-        <v>20.99281209570944</v>
+        <v>4841268.939491187</v>
       </c>
       <c r="H18">
-        <v>1048.462860520141</v>
+        <v>3985871.962215601</v>
       </c>
       <c r="I18">
-        <v>-1252.575249220018</v>
+        <v>1115436.623508966</v>
       </c>
       <c r="J18">
-        <v>1563.103621258436</v>
+        <v>4842444.205437523</v>
       </c>
       <c r="K18">
-        <v>3988.381709473532</v>
+        <v>3987407.843601109</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,31 +1084,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>35.46363121929674</v>
+        <v>1116438.216356542</v>
       </c>
       <c r="G19">
-        <v>28.12328708807102</v>
+        <v>4841285.452295938</v>
       </c>
       <c r="H19">
-        <v>1070.380612184024</v>
+        <v>3985903.369798805</v>
       </c>
       <c r="I19">
-        <v>-1193.568986095686</v>
+        <v>1115480.328509394</v>
       </c>
       <c r="J19">
-        <v>1500.849973807876</v>
+        <v>4842395.553855756</v>
       </c>
       <c r="K19">
-        <v>4068.882676243295</v>
+        <v>3987469.260938936</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,31 +1119,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>33.82042194297097</v>
+        <v>1116434.614985705</v>
       </c>
       <c r="G20">
-        <v>35.25376208043259</v>
+        <v>4841301.96510069</v>
       </c>
       <c r="H20">
-        <v>1090.219658472357</v>
+        <v>3985931.798649835</v>
       </c>
       <c r="I20">
-        <v>-1133.109748026684</v>
+        <v>1115525.109705249</v>
       </c>
       <c r="J20">
-        <v>1438.596326357317</v>
+        <v>4842346.902273987</v>
       </c>
       <c r="K20">
-        <v>4129.528008886901</v>
+        <v>3987515.529636469</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,31 +1154,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>32.38581533726529</v>
+        <v>1116431.470802874</v>
       </c>
       <c r="G21">
-        <v>42.38423707279415</v>
+        <v>4841318.477905441</v>
       </c>
       <c r="H21">
-        <v>1108.340361991808</v>
+        <v>3985957.765159185</v>
       </c>
       <c r="I21">
-        <v>-1071.161756841712</v>
+        <v>1115570.993596854</v>
       </c>
       <c r="J21">
-        <v>1376.342678906757</v>
+        <v>4842298.25069222</v>
       </c>
       <c r="K21">
-        <v>4170.317707404351</v>
+        <v>3987546.649693709</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>31.11919329570892</v>
+        <v>1116428.694786606</v>
       </c>
       <c r="G22">
-        <v>49.51471206515573</v>
+        <v>4841334.990710191</v>
       </c>
       <c r="H22">
-        <v>1125.016806284501</v>
+        <v>3985981.662081629</v>
       </c>
       <c r="I22">
-        <v>-1007.688353364917</v>
+        <v>1115618.007337077</v>
       </c>
       <c r="J22">
-        <v>1314.089031456198</v>
+        <v>4842249.599110453</v>
       </c>
       <c r="K22">
-        <v>4191.251771795645</v>
+        <v>3987562.621110654</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,31 +1224,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>29.99019363545572</v>
+        <v>1116426.220393046</v>
       </c>
       <c r="G23">
-        <v>56.6451870575173</v>
+        <v>4841351.503514944</v>
       </c>
       <c r="H23">
-        <v>1140.462314593783</v>
+        <v>3986003.795103974</v>
       </c>
       <c r="I23">
-        <v>-942.6519757219661</v>
+        <v>1115666.178747402</v>
       </c>
       <c r="J23">
-        <v>1251.835384005638</v>
+        <v>4842200.947528686</v>
       </c>
       <c r="K23">
-        <v>4192.330202060781</v>
+        <v>3987563.443887306</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,31 +1259,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>28.97560913893165</v>
+        <v>1116423.996759653</v>
       </c>
       <c r="G24">
-        <v>63.77566204987887</v>
+        <v>4841368.016319695</v>
       </c>
       <c r="H24">
-        <v>1154.846180173742</v>
+        <v>3986024.406819168</v>
       </c>
       <c r="I24">
-        <v>-876.0141371119282</v>
+        <v>1115715.536334388</v>
       </c>
       <c r="J24">
-        <v>1189.581736555078</v>
+        <v>4842152.295946917</v>
       </c>
       <c r="K24">
-        <v>4173.552998199761</v>
+        <v>3987549.118023664</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,31 +1294,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>28.05735899906992</v>
+        <v>1116421.984259284</v>
       </c>
       <c r="G25">
-        <v>70.90613704224045</v>
+        <v>4841384.529124445</v>
       </c>
       <c r="H25">
-        <v>1168.305007263582</v>
+        <v>3986043.692977627</v>
       </c>
       <c r="I25">
-        <v>-807.735403031805</v>
+        <v>1115766.109306547</v>
       </c>
       <c r="J25">
-        <v>1127.328089104519</v>
+        <v>4842103.64436515</v>
       </c>
       <c r="K25">
-        <v>4134.920160212584</v>
+        <v>3987519.643519729</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,31 +1329,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>27.22112078968927</v>
+        <v>1116420.15150192</v>
       </c>
       <c r="G26">
-        <v>78.03661203460202</v>
+        <v>4841401.041929197</v>
       </c>
       <c r="H26">
-        <v>1180.950620503605</v>
+        <v>3986061.813821229</v>
       </c>
       <c r="I26">
-        <v>-737.7753679402426</v>
+        <v>1115817.927591618</v>
       </c>
       <c r="J26">
-        <v>1065.074441653959</v>
+        <v>4842054.992783383</v>
       </c>
       <c r="K26">
-        <v>4076.43168809925</v>
+        <v>3987475.0203755</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,31 +1364,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>26.45538323655581</v>
+        <v>1116418.47325866</v>
       </c>
       <c r="G27">
-        <v>85.16708702696357</v>
+        <v>4841417.554733948</v>
       </c>
       <c r="H27">
-        <v>1192.875717996136</v>
+        <v>3986078.902184006</v>
       </c>
       <c r="I27">
-        <v>-666.0926313466028</v>
+        <v>1115871.021854287</v>
       </c>
       <c r="J27">
-        <v>1002.820794203399</v>
+        <v>4842006.341201616</v>
       </c>
       <c r="K27">
-        <v>3998.08758185976</v>
+        <v>3987415.248590976</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,31 +1399,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>25.750775052877</v>
+        <v>1116416.928990744</v>
       </c>
       <c r="G28">
-        <v>92.29756201932516</v>
+        <v>4841434.0675387</v>
       </c>
       <c r="H28">
-        <v>1204.157998912534</v>
+        <v>3986095.069406906</v>
       </c>
       <c r="I28">
-        <v>-592.6447733112533</v>
+        <v>1115925.423514329</v>
       </c>
       <c r="J28">
-        <v>940.56714675284</v>
+        <v>4841957.689619848</v>
       </c>
       <c r="K28">
-        <v>3899.887841494113</v>
+        <v>3987340.32816616</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,31 +1434,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>25.09957961150892</v>
+        <v>1116415.50178588</v>
       </c>
       <c r="G29">
-        <v>99.42803701168673</v>
+        <v>4841450.580343451</v>
       </c>
       <c r="H29">
-        <v>1214.863234418679</v>
+        <v>3986110.409738343</v>
       </c>
       <c r="I29">
-        <v>-517.3883293425729</v>
+        <v>1115981.164765201</v>
       </c>
       <c r="J29">
-        <v>878.3134993022803</v>
+        <v>4841909.038038081</v>
       </c>
       <c r="K29">
-        <v>3781.832467002308</v>
+        <v>3987250.25910105</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,31 +1469,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>24.49537759923771</v>
+        <v>1116414.177575057</v>
       </c>
       <c r="G30">
-        <v>106.5585120040483</v>
+        <v>4841467.093148202</v>
       </c>
       <c r="H30">
-        <v>1225.047590785388</v>
+        <v>3986125.00366316</v>
       </c>
       <c r="I30">
-        <v>-440.2787646758228</v>
+        <v>1116038.278593094</v>
       </c>
       <c r="J30">
-        <v>816.0598518517206</v>
+        <v>4841860.386456314</v>
       </c>
       <c r="K30">
-        <v>3643.921458384347</v>
+        <v>3987145.041395646</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,31 +1504,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>23.93277961748187</v>
+        <v>1116412.944546499</v>
       </c>
       <c r="G31">
-        <v>113.6889869964099</v>
+        <v>4841483.605952954</v>
       </c>
       <c r="H31">
-        <v>1234.759413097081</v>
+        <v>3986138.920458641</v>
       </c>
       <c r="I31">
-        <v>-361.270447918653</v>
+        <v>1116096.798796455</v>
       </c>
       <c r="J31">
-        <v>753.8062044011613</v>
+        <v>4841811.734874546</v>
       </c>
       <c r="K31">
-        <v>3486.15481564023</v>
+        <v>3987024.675049949</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,31 +1539,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>23.40722315896225</v>
+        <v>1116411.792700699</v>
       </c>
       <c r="G32">
-        <v>120.8194619887714</v>
+        <v>4841500.118757705</v>
       </c>
       <c r="H32">
-        <v>1244.0406132047</v>
+        <v>3986152.220183407</v>
       </c>
       <c r="I32">
-        <v>-280.3166240476565</v>
+        <v>1116156.760005987</v>
       </c>
       <c r="J32">
-        <v>691.5525569506016</v>
+        <v>4841763.083292778</v>
       </c>
       <c r="K32">
-        <v>3308.532538769956</v>
+        <v>3986889.160063957</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,31 +1574,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>22.91481642162763</v>
+        <v>1116410.713508116</v>
       </c>
       <c r="G33">
-        <v>127.949936981133</v>
+        <v>4841516.631562456</v>
       </c>
       <c r="H33">
-        <v>1252.927762829696</v>
+        <v>3986164.955243808</v>
       </c>
       <c r="I33">
-        <v>-197.3693867399886</v>
+        <v>1116218.19770514</v>
       </c>
       <c r="J33">
-        <v>629.2989095000421</v>
+        <v>4841714.431711011</v>
       </c>
       <c r="K33">
-        <v>3111.054627773526</v>
+        <v>3986738.496437672</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>22.45221671005578</v>
+        <v>1116409.699642667</v>
       </c>
       <c r="G34">
-        <v>135.0804119734946</v>
+        <v>4841533.144367208</v>
       </c>
       <c r="H34">
-        <v>1261.452963928982</v>
+        <v>3986177.171641136</v>
       </c>
       <c r="I34">
-        <v>-112.3796500236784</v>
+        <v>1116281.148251113</v>
       </c>
       <c r="J34">
-        <v>567.0452620494824</v>
+        <v>4841665.780129244</v>
       </c>
       <c r="K34">
-        <v>2893.721082650938</v>
+        <v>3986572.684171093</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,31 +1644,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>22.01653472660855</v>
+        <v>1116408.744771968</v>
       </c>
       <c r="G35">
-        <v>142.2108869658562</v>
+        <v>4841549.657171958</v>
       </c>
       <c r="H35">
-        <v>1269.644548659176</v>
+        <v>3986188.909974653</v>
       </c>
       <c r="I35">
-        <v>-25.29711922985339</v>
+        <v>1116345.648896367</v>
       </c>
       <c r="J35">
-        <v>504.7916145989227</v>
+        <v>4841617.128547476</v>
       </c>
       <c r="K35">
-        <v>2656.531903402193</v>
+        <v>3986391.72326422</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,31 +1679,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>21.60525848329337</v>
+        <v>1116407.843390574</v>
       </c>
       <c r="G36">
-        <v>149.3413619582177</v>
+        <v>4841566.16997671</v>
       </c>
       <c r="H36">
-        <v>1277.527647469604</v>
+        <v>3986200.206255658</v>
       </c>
       <c r="I36">
-        <v>63.92973877031044</v>
+        <v>1116411.737810671</v>
       </c>
       <c r="J36">
-        <v>442.5379671483633</v>
+        <v>4841568.476965708</v>
       </c>
       <c r="K36">
-        <v>2399.487090027292</v>
+        <v>3986195.613717054</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,31 +1714,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>21.2161922532678</v>
+        <v>1116406.990686177</v>
       </c>
       <c r="G37">
-        <v>156.4718369505793</v>
+        <v>4841582.682781462</v>
       </c>
       <c r="H37">
-        <v>1285.124654057653</v>
+        <v>3986211.092573751</v>
       </c>
       <c r="I37">
-        <v>155.353726061524</v>
+        <v>1116479.454103689</v>
       </c>
       <c r="J37">
-        <v>380.2843196978036</v>
+        <v>4841519.825383941</v>
       </c>
       <c r="K37">
-        <v>2122.586642526234</v>
+        <v>3985984.355529594</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,31 +1749,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>20.84740717183663</v>
+        <v>1116406.182431345</v>
       </c>
       <c r="G38">
-        <v>163.6023119429409</v>
+        <v>4841599.195586212</v>
       </c>
       <c r="H38">
-        <v>1292.455608871048</v>
+        <v>3986221.597646388</v>
       </c>
       <c r="I38">
-        <v>249.0289449312585</v>
+        <v>1116548.837848125</v>
       </c>
       <c r="J38">
-        <v>318.0306722472441</v>
+        <v>4841471.173802174</v>
       </c>
       <c r="K38">
-        <v>1825.83056089902</v>
+        <v>3985757.948701841</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,31 +1784,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>20.49720094870599</v>
+        <v>1116405.414895221</v>
       </c>
       <c r="G39">
-        <v>170.7327869353024</v>
+        <v>4841615.708390964</v>
       </c>
       <c r="H39">
-        <v>1299.538517702184</v>
+        <v>3986231.747275413</v>
       </c>
       <c r="I39">
-        <v>345.010829886038</v>
+        <v>1116619.930103436</v>
       </c>
       <c r="J39">
-        <v>255.7770247966845</v>
+        <v>4841422.522220405</v>
       </c>
       <c r="K39">
-        <v>1509.218845145648</v>
+        <v>3985516.393233793</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,31 +1819,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>20.16406477049033</v>
+        <v>1116404.684770985</v>
       </c>
       <c r="G40">
-        <v>177.863261927664</v>
+        <v>4841632.221195715</v>
       </c>
       <c r="H40">
-        <v>1306.389618126874</v>
+        <v>3986241.56472886</v>
       </c>
       <c r="I40">
-        <v>443.3561804561149</v>
+        <v>1116692.77294013</v>
       </c>
       <c r="J40">
-        <v>193.5233773461247</v>
+        <v>4841373.870638638</v>
       </c>
       <c r="K40">
-        <v>1172.75149526612</v>
+        <v>3985259.689125453</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,31 +1854,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>19.84665592498352</v>
+        <v>1116403.989115857</v>
       </c>
       <c r="G41">
-        <v>184.9937369200256</v>
+        <v>4841648.734000466</v>
       </c>
       <c r="H41">
-        <v>1313.023603709287</v>
+        <v>3986251.071062235</v>
       </c>
       <c r="I41">
-        <v>544.1231948079148</v>
+        <v>1116767.409464663</v>
       </c>
       <c r="J41">
-        <v>131.2697298955653</v>
+        <v>4841325.219056871</v>
       </c>
       <c r="K41">
-        <v>816.4285112604355</v>
+        <v>3984987.836376817</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,31 +1889,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>19.54377501412729</v>
+        <v>1116403.325301152</v>
       </c>
       <c r="G42">
-        <v>192.1242119123871</v>
+        <v>4841665.246805218</v>
       </c>
       <c r="H42">
-        <v>1319.453813760316</v>
+        <v>3986260.285390433</v>
       </c>
       <c r="I42">
-        <v>647.3715041841767</v>
+        <v>1116843.883844949</v>
       </c>
       <c r="J42">
-        <v>69.01608244500562</v>
+        <v>4841276.567475104</v>
       </c>
       <c r="K42">
-        <v>440.2498931285934</v>
+        <v>3984700.834987889</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,31 +1924,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>19.25434687378672</v>
+        <v>1116402.690970468</v>
       </c>
       <c r="G43">
-        <v>199.2546869047487</v>
+        <v>4841681.759609969</v>
       </c>
       <c r="H43">
-        <v>1325.692394811317</v>
+        <v>3986269.225119126</v>
       </c>
       <c r="I43">
-        <v>753.1622081921253</v>
+        <v>1116922.241336494</v>
       </c>
       <c r="J43">
-        <v>6.76243499444591</v>
+        <v>4841227.915893335</v>
       </c>
       <c r="K43">
-        <v>44.21564087059478</v>
+        <v>3984398.684958667</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,31 +1959,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>18.9774045083445</v>
+        <v>1116402.08400447</v>
       </c>
       <c r="G44">
-        <v>206.3851618971103</v>
+        <v>4841698.272414721</v>
       </c>
       <c r="H44">
-        <v>1331.750438716284</v>
+        <v>3986277.906142659</v>
       </c>
       <c r="I44">
-        <v>861.5579109606056</v>
+        <v>1117002.528309181</v>
       </c>
       <c r="J44">
-        <v>-55.4912124561135</v>
+        <v>4841179.264311568</v>
       </c>
       <c r="K44">
-        <v>-371.6742455135594</v>
+        <v>3984081.386289151</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,31 +1994,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>18.71207549298557</v>
+        <v>1116401.502491091</v>
       </c>
       <c r="G45">
-        <v>213.5156368894718</v>
+        <v>4841714.785219472</v>
       </c>
       <c r="H45">
-        <v>1337.638101327859</v>
+        <v>3986286.343014113</v>
       </c>
       <c r="I45">
-        <v>972.6227581875422</v>
+        <v>1117084.792274708</v>
       </c>
       <c r="J45">
-        <v>-117.7448599066732</v>
+        <v>4841130.612729801</v>
       </c>
       <c r="K45">
-        <v>-807.4197660238715</v>
+        <v>3983748.938979342</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>18.45757040797488</v>
+        <v>1116400.944700185</v>
       </c>
       <c r="G46">
-        <v>220.6461118818334</v>
+        <v>4841731.298024222</v>
       </c>
       <c r="H46">
-        <v>1343.364704936744</v>
+        <v>3986294.549092094</v>
       </c>
       <c r="I46">
-        <v>1086.422475099657</v>
+        <v>1117169.081914704</v>
       </c>
       <c r="J46">
-        <v>-179.9985073572329</v>
+        <v>4841081.961148033</v>
       </c>
       <c r="K46">
-        <v>-1263.020920660341</v>
+        <v>3983401.343029238</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,31 +2064,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>18.2131729556296</v>
+        <v>1116400.409061864</v>
       </c>
       <c r="G47">
-        <v>227.776586874195</v>
+        <v>4841747.810828974</v>
       </c>
       <c r="H47">
-        <v>1348.938827069362</v>
+        <v>3986302.53666798</v>
       </c>
       <c r="I47">
-        <v>1203.024405346913</v>
+        <v>1117255.44710954</v>
       </c>
       <c r="J47">
-        <v>-242.2521548077926</v>
+        <v>4841033.309566265</v>
       </c>
       <c r="K47">
-        <v>-1738.477709422967</v>
+        <v>3983038.598438842</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,31 +2099,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>17.97823147816918</v>
+        <v>1116399.894147911</v>
       </c>
       <c r="G48">
-        <v>234.9070618665565</v>
+        <v>4841764.323633726</v>
       </c>
       <c r="H48">
-        <v>1354.368377767313</v>
+        <v>3986310.31707666</v>
       </c>
       <c r="I48">
-        <v>1322.497550854698</v>
+        <v>1117343.938967844</v>
       </c>
       <c r="J48">
-        <v>-304.5058022583518</v>
+        <v>4840984.657984498</v>
       </c>
       <c r="K48">
-        <v>-2233.790132311746</v>
+        <v>3982660.705208151</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,31 +2134,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>17.75215164771007</v>
+        <v>1116399.398655754</v>
       </c>
       <c r="G49">
-        <v>242.0375368589181</v>
+        <v>4841780.836438476</v>
       </c>
       <c r="H49">
-        <v>1359.660667096257</v>
+        <v>3986317.900793274</v>
       </c>
       <c r="I49">
-        <v>1444.912612657335</v>
+        <v>1117434.609856749</v>
       </c>
       <c r="J49">
-        <v>-366.7594497089115</v>
+        <v>4840936.006402731</v>
       </c>
       <c r="K49">
-        <v>-2748.958189326685</v>
+        <v>3982267.663337166</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,31 +2169,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>17.53439014170025</v>
+        <v>1116398.921394611</v>
       </c>
       <c r="G50">
-        <v>249.1680118512797</v>
+        <v>4841797.349243228</v>
       </c>
       <c r="H50">
-        <v>1364.822464330108</v>
+        <v>3986325.29751802</v>
       </c>
       <c r="I50">
-        <v>1570.342032737069</v>
+        <v>1117527.513432876</v>
       </c>
       <c r="J50">
-        <v>-429.0130971594712</v>
+        <v>4840887.354820963</v>
       </c>
       <c r="K50">
-        <v>-3283.981880467782</v>
+        <v>3981859.472825888</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,31 +2204,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>17.32444915057744</v>
+        <v>1116398.461273448</v>
       </c>
       <c r="G51">
-        <v>256.2984868436412</v>
+        <v>4841813.86204798</v>
       </c>
       <c r="H51">
-        <v>1369.860050012797</v>
+        <v>3986332.516250758</v>
       </c>
       <c r="I51">
-        <v>1698.860036893316</v>
+        <v>1117622.704674097</v>
       </c>
       <c r="J51">
-        <v>-491.2667446100309</v>
+        <v>4840838.703239195</v>
       </c>
       <c r="K51">
-        <v>-3838.861205735035</v>
+        <v>3981436.133674317</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,31 +2239,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>17.12187159127586</v>
+        <v>1116398.01729049</v>
       </c>
       <c r="G52">
-        <v>263.4289618360029</v>
+        <v>4841830.374852731</v>
       </c>
       <c r="H52">
-        <v>1374.77926190204</v>
+        <v>3986339.565356847</v>
       </c>
       <c r="I52">
-        <v>1830.542678667516</v>
+        <v>1117720.239912057</v>
       </c>
       <c r="J52">
-        <v>-553.5203920605906</v>
+        <v>4840790.051657428</v>
       </c>
       <c r="K52">
-        <v>-4413.596165128444</v>
+        <v>3980997.645882451</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,31 +2274,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>16.92623692183929</v>
+        <v>1116397.588524049</v>
       </c>
       <c r="G53">
-        <v>270.5594368283644</v>
+        <v>4841846.887657482</v>
       </c>
       <c r="H53">
-        <v>1379.585535638078</v>
+        <v>3986346.452625421</v>
       </c>
       <c r="I53">
-        <v>1965.467884349594</v>
+        <v>1117820.176865522</v>
       </c>
       <c r="J53">
-        <v>-615.7740395111497</v>
+        <v>4840741.400075661</v>
       </c>
       <c r="K53">
-        <v>-5008.186758648006</v>
+        <v>3980544.009450292</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,31 +2309,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>16.73715746993032</v>
+        <v>1116397.174124475</v>
       </c>
       <c r="G54">
-        <v>277.689911820726</v>
+        <v>4841863.400462233</v>
       </c>
       <c r="H54">
-        <v>1384.283940847881</v>
+        <v>3986353.185321129</v>
       </c>
       <c r="I54">
-        <v>2103.715499092682</v>
+        <v>1117922.574674526</v>
       </c>
       <c r="J54">
-        <v>-678.0276869617094</v>
+        <v>4840692.748493893</v>
       </c>
       <c r="K54">
-        <v>-5622.632986293729</v>
+        <v>3980075.224377839</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,31 +2344,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G55">
-        <v>-113.0467485384432</v>
+        <v>4841119.638003366</v>
       </c>
       <c r="H55">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I55">
-        <v>-1866.968574713884</v>
+        <v>1114860.997832167</v>
       </c>
       <c r="J55">
-        <v>2974.26535150852</v>
+        <v>4843223.039077139</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984370.232550576</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,31 +2379,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G56">
-        <v>-113.0467485384432</v>
+        <v>4841119.638003366</v>
       </c>
       <c r="H56">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I56">
-        <v>-1830.109643802139</v>
+        <v>1114890.611819079</v>
       </c>
       <c r="J56">
-        <v>2901.913984916473</v>
+        <v>4843174.387491269</v>
       </c>
       <c r="K56">
-        <v>422.5976013082597</v>
+        <v>3984674.028535795</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,31 +2414,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G57">
-        <v>-113.0467485384432</v>
+        <v>4841119.638003366</v>
       </c>
       <c r="H57">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I57">
-        <v>-1792.343095626287</v>
+        <v>1114920.955023175</v>
       </c>
       <c r="J57">
-        <v>2829.562618324425</v>
+        <v>4843125.7359054</v>
       </c>
       <c r="K57">
-        <v>824.1225490974274</v>
+        <v>3984962.675860641</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,31 +2449,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G58">
-        <v>-113.0467485384432</v>
+        <v>4841119.638003366</v>
       </c>
       <c r="H58">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I58">
-        <v>-1753.646580946192</v>
+        <v>1114952.045400755</v>
       </c>
       <c r="J58">
-        <v>2757.211251732378</v>
+        <v>4843077.08431953</v>
       </c>
       <c r="K58">
-        <v>1204.574843367506</v>
+        <v>3985236.174525112</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,31 +2484,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G59">
-        <v>-113.0467485384432</v>
+        <v>4841119.638003366</v>
       </c>
       <c r="H59">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I59">
-        <v>-1713.997200192241</v>
+        <v>1114983.901350282</v>
       </c>
       <c r="J59">
-        <v>2684.859885140331</v>
+        <v>4843028.432733661</v>
       </c>
       <c r="K59">
-        <v>1563.954484118493</v>
+        <v>3985494.52452921</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,31 +2519,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G60">
-        <v>-113.0467485384432</v>
+        <v>4841119.638003366</v>
       </c>
       <c r="H60">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I60">
-        <v>-1673.371489913984</v>
+        <v>1115016.541723258</v>
       </c>
       <c r="J60">
-        <v>2612.508518548283</v>
+        <v>4842979.781147792</v>
       </c>
       <c r="K60">
-        <v>1902.261471350392</v>
+        <v>3985737.725872934</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,31 +2554,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G61">
-        <v>-113.0467485384432</v>
+        <v>4841119.638003366</v>
       </c>
       <c r="H61">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I61">
-        <v>-1631.745408895094</v>
+        <v>1115049.98583539</v>
       </c>
       <c r="J61">
-        <v>2540.157151956236</v>
+        <v>4842931.129561922</v>
       </c>
       <c r="K61">
-        <v>2219.495805063199</v>
+        <v>3985965.778556284</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,31 +2589,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G62">
-        <v>-113.0467485384432</v>
+        <v>4841119.638003366</v>
       </c>
       <c r="H62">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I62">
-        <v>-1589.094323926406</v>
+        <v>1115084.253478016</v>
       </c>
       <c r="J62">
-        <v>2467.805785364188</v>
+        <v>4842882.477976053</v>
       </c>
       <c r="K62">
-        <v>2515.657485256917</v>
+        <v>3986178.68257926</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,31 +2624,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>230.8696629823841</v>
+        <v>1116578.123147415</v>
       </c>
       <c r="G63">
-        <v>-94.37954829812071</v>
+        <v>4841136.150805777</v>
       </c>
       <c r="H63">
-        <v>986.4795120773721</v>
+        <v>3985228.09637046</v>
       </c>
       <c r="I63">
-        <v>-1545.392995228643</v>
+        <v>1115119.364929816</v>
       </c>
       <c r="J63">
-        <v>2395.454418772141</v>
+        <v>4842833.826390184</v>
       </c>
       <c r="K63">
-        <v>2790.746511931543</v>
+        <v>3986376.437941862</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,31 +2659,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>179.1817909116243</v>
+        <v>1116529.442600243</v>
       </c>
       <c r="G64">
-        <v>-75.71234805779822</v>
+        <v>4841152.663608187</v>
       </c>
       <c r="H64">
-        <v>1215.336120803624</v>
+        <v>3985427.350765635</v>
       </c>
       <c r="I64">
-        <v>-1500.615561516182</v>
+        <v>1115155.340968814</v>
       </c>
       <c r="J64">
-        <v>2323.103052180094</v>
+        <v>4842785.174804315</v>
       </c>
       <c r="K64">
-        <v>3044.762885087079</v>
+        <v>3986559.044644091</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,31 +2694,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>148.8177590136196</v>
+        <v>1116500.845220859</v>
       </c>
       <c r="G65">
-        <v>-57.04514781747575</v>
+        <v>4841169.176410598</v>
       </c>
       <c r="H65">
-        <v>1351.65482113229</v>
+        <v>3985546.036873659</v>
       </c>
       <c r="I65">
-        <v>-1454.735524693036</v>
+        <v>1115192.202884675</v>
       </c>
       <c r="J65">
-        <v>2250.751685588046</v>
+        <v>4842736.523218445</v>
       </c>
       <c r="K65">
-        <v>3277.706604723525</v>
+        <v>3986726.502685946</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,31 +2729,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>129.6497544615121</v>
+        <v>1116482.792456982</v>
       </c>
       <c r="G66">
-        <v>-38.37794757715327</v>
+        <v>4841185.689213009</v>
       </c>
       <c r="H66">
-        <v>1449.072582828454</v>
+        <v>3985630.853813375</v>
       </c>
       <c r="I66">
-        <v>-1407.725734171979</v>
+        <v>1115229.972491302</v>
       </c>
       <c r="J66">
-        <v>2178.400318995999</v>
+        <v>4842687.871632576</v>
       </c>
       <c r="K66">
-        <v>3489.577670840882</v>
+        <v>3986878.812067427</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,31 +2764,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>116.2820658943708</v>
+        <v>1116470.202532735</v>
       </c>
       <c r="G67">
-        <v>-19.71074733683079</v>
+        <v>4841202.202015419</v>
       </c>
       <c r="H67">
-        <v>1524.931741669653</v>
+        <v>3985696.900718892</v>
       </c>
       <c r="I67">
-        <v>-1359.558370807556</v>
+        <v>1115268.672139745</v>
       </c>
       <c r="J67">
-        <v>2106.048952403951</v>
+        <v>4842639.220046706</v>
       </c>
       <c r="K67">
-        <v>3680.376083439148</v>
+        <v>3987015.972788534</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,31 +2799,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>106.3093699066857</v>
+        <v>1116460.810072221</v>
       </c>
       <c r="G68">
-        <v>-1.04354709650832</v>
+        <v>4841218.714817829</v>
       </c>
       <c r="H68">
-        <v>1587.066276933307</v>
+        <v>3985750.998257576</v>
       </c>
       <c r="I68">
-        <v>-1310.204930433446</v>
+        <v>1115308.324731427</v>
       </c>
       <c r="J68">
-        <v>2033.697585811904</v>
+        <v>4842590.568460838</v>
       </c>
       <c r="K68">
-        <v>3850.101842518323</v>
+        <v>3987137.984849267</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,31 +2834,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>98.51211429002312</v>
+        <v>1116453.466479718</v>
       </c>
       <c r="G69">
-        <v>17.62365314381416</v>
+        <v>4841235.227620239</v>
       </c>
       <c r="H69">
-        <v>1639.689692700378</v>
+        <v>3985796.814923911</v>
       </c>
       <c r="I69">
-        <v>-1259.636206994456</v>
+        <v>1115348.9537317</v>
       </c>
       <c r="J69">
-        <v>1961.346219219856</v>
+        <v>4842541.916874968</v>
       </c>
       <c r="K69">
-        <v>3998.754948078408</v>
+        <v>3987244.848249626</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,31 +2869,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>92.20356675934556</v>
+        <v>1116447.524978678</v>
       </c>
       <c r="G70">
-        <v>36.29085338413665</v>
+        <v>4841251.74042265</v>
       </c>
       <c r="H70">
-        <v>1685.33092172598</v>
+        <v>3985836.552537499</v>
       </c>
       <c r="I70">
-        <v>-1207.822275263153</v>
+        <v>1115390.583183727</v>
       </c>
       <c r="J70">
-        <v>1888.994852627809</v>
+        <v>4842493.265289099</v>
       </c>
       <c r="K70">
-        <v>4126.335400119402</v>
+        <v>3987336.562989612</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,31 +2904,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>86.96522444747026</v>
+        <v>1116442.59141574</v>
       </c>
       <c r="G71">
-        <v>54.95805362445911</v>
+        <v>4841268.253225061</v>
       </c>
       <c r="H71">
-        <v>1725.627610587172</v>
+        <v>3985871.636918113</v>
       </c>
       <c r="I71">
-        <v>-1154.73247313091</v>
+        <v>1115433.237722711</v>
       </c>
       <c r="J71">
-        <v>1816.643486035762</v>
+        <v>4842444.613703229</v>
       </c>
       <c r="K71">
-        <v>4232.843198641307</v>
+        <v>3987413.129069224</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,31 +2939,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>82.52612347444322</v>
+        <v>1116438.410592354</v>
       </c>
       <c r="G72">
-        <v>73.62525386478161</v>
+        <v>4841284.766027471</v>
       </c>
       <c r="H72">
-        <v>1761.701255975455</v>
+        <v>3985903.044498753</v>
       </c>
       <c r="I72">
-        <v>-1100.335383462882</v>
+        <v>1115476.942590477</v>
       </c>
       <c r="J72">
-        <v>1744.292119443714</v>
+        <v>4842395.962117361</v>
       </c>
       <c r="K72">
-        <v>4318.278343644121</v>
+        <v>3987474.546488462</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,31 +2974,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>78.70227106649737</v>
+        <v>1116434.80922089</v>
       </c>
       <c r="G73">
-        <v>92.29245410510408</v>
+        <v>4841301.278829882</v>
       </c>
       <c r="H73">
-        <v>1794.353634359065</v>
+        <v>3985931.473347464</v>
       </c>
       <c r="I73">
-        <v>-1044.598815506185</v>
+        <v>1115521.723650404</v>
       </c>
       <c r="J73">
-        <v>1671.940752851667</v>
+        <v>4842347.31053149</v>
       </c>
       <c r="K73">
-        <v>4382.640835127845</v>
+        <v>3987520.815247326</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,31 +3009,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>75.36385032927468</v>
+        <v>1116431.665037512</v>
       </c>
       <c r="G74">
-        <v>110.9596543454265</v>
+        <v>4841317.791632293</v>
       </c>
       <c r="H74">
-        <v>1824.177853693754</v>
+        <v>3985957.439854694</v>
       </c>
       <c r="I74">
-        <v>-987.4897858402558</v>
+        <v>1115567.607402733</v>
       </c>
       <c r="J74">
-        <v>1599.589386259619</v>
+        <v>4842298.658945621</v>
       </c>
       <c r="K74">
-        <v>4425.930673092479</v>
+        <v>3987551.935345816</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,31 +3044,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>72.41634034783615</v>
+        <v>1116428.889020761</v>
       </c>
       <c r="G75">
-        <v>129.626854585749</v>
+        <v>4841334.304434703</v>
       </c>
       <c r="H75">
-        <v>1851.625018301582</v>
+        <v>3985981.336775187</v>
       </c>
       <c r="I75">
-        <v>-928.9744988581469</v>
+        <v>1115614.621000251</v>
       </c>
       <c r="J75">
-        <v>1527.238019667572</v>
+        <v>4842250.007359752</v>
       </c>
       <c r="K75">
-        <v>4448.147857538022</v>
+        <v>3987567.906783932</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,31 +3079,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>69.78908639325626</v>
+        <v>1116426.41462677</v>
       </c>
       <c r="G76">
-        <v>148.2940548260715</v>
+        <v>4841350.817237114</v>
       </c>
       <c r="H76">
-        <v>1877.046229296912</v>
+        <v>3986003.469795727</v>
       </c>
       <c r="I76">
-        <v>-869.0183267671807</v>
+        <v>1115662.792264357</v>
       </c>
       <c r="J76">
-        <v>1454.886653075525</v>
+        <v>4842201.355773883</v>
       </c>
       <c r="K76">
-        <v>4449.292388464475</v>
+        <v>3987568.729561675</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,31 +3114,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>67.42808379547823</v>
+        <v>1116424.190992991</v>
       </c>
       <c r="G77">
-        <v>166.961255066394</v>
+        <v>4841367.330039524</v>
       </c>
       <c r="H77">
-        <v>1900.720120405881</v>
+        <v>3986024.081509239</v>
       </c>
       <c r="I77">
-        <v>-807.5857890971416</v>
+        <v>1115712.149701524</v>
       </c>
       <c r="J77">
-        <v>1382.535286483477</v>
+        <v>4842152.704188013</v>
       </c>
       <c r="K77">
-        <v>4429.364265871837</v>
+        <v>3987554.403679043</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,31 +3149,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>65.29125736746654</v>
+        <v>1116422.178492271</v>
       </c>
       <c r="G78">
-        <v>185.6284553067165</v>
+        <v>4841383.842841934</v>
       </c>
       <c r="H78">
-        <v>1922.871523671443</v>
+        <v>3986043.367666123</v>
       </c>
       <c r="I78">
-        <v>-744.6405317038755</v>
+        <v>1115762.722520174</v>
       </c>
       <c r="J78">
-        <v>1310.18391989143</v>
+        <v>4842104.052602144</v>
       </c>
       <c r="K78">
-        <v>4388.36348976011</v>
+        <v>3987524.929136038</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,31 +3184,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>63.34527791334218</v>
+        <v>1116420.345734589</v>
       </c>
       <c r="G79">
-        <v>204.295655547039</v>
+        <v>4841400.355644345</v>
       </c>
       <c r="H79">
-        <v>1943.684487278915</v>
+        <v>3986061.488508246</v>
       </c>
       <c r="I79">
-        <v>-680.1453052558755</v>
+        <v>1115814.540647956</v>
       </c>
       <c r="J79">
-        <v>1237.832553299383</v>
+        <v>4842055.401016275</v>
       </c>
       <c r="K79">
-        <v>4326.290060129292</v>
+        <v>3987480.305932659</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,31 +3219,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>61.56335796644952</v>
+        <v>1116418.667491037</v>
       </c>
       <c r="G80">
-        <v>222.9628557873614</v>
+        <v>4841416.868446755</v>
       </c>
       <c r="H80">
-        <v>1963.311579727231</v>
+        <v>3986078.576869629</v>
       </c>
       <c r="I80">
-        <v>-614.061943191114</v>
+        <v>1115867.634749464</v>
       </c>
       <c r="J80">
-        <v>1165.481186707335</v>
+        <v>4842006.749430405</v>
       </c>
       <c r="K80">
-        <v>4243.143976979384</v>
+        <v>3987420.534068907</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,31 +3254,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>59.92368994689995</v>
+        <v>1116417.123222852</v>
       </c>
       <c r="G81">
-        <v>241.6300560276839</v>
+        <v>4841433.381249166</v>
       </c>
       <c r="H81">
-        <v>1981.880683310049</v>
+        <v>3986094.744091209</v>
       </c>
       <c r="I81">
-        <v>-546.3513391310863</v>
+        <v>1115922.036244375</v>
       </c>
       <c r="J81">
-        <v>1093.129820115288</v>
+        <v>4841958.097844536</v>
       </c>
       <c r="K81">
-        <v>4138.925240310386</v>
+        <v>3987345.61354478</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,31 +3289,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>58.40831677295676</v>
+        <v>1116415.696017739</v>
       </c>
       <c r="G82">
-        <v>260.2972562680064</v>
+        <v>4841449.894051577</v>
       </c>
       <c r="H82">
-        <v>1999.500048442428</v>
+        <v>3986110.084421394</v>
       </c>
       <c r="I82">
-        <v>-476.9734237386932</v>
+        <v>1115977.77732605</v>
       </c>
       <c r="J82">
-        <v>1020.77845352324</v>
+        <v>4841909.446258667</v>
       </c>
       <c r="K82">
-        <v>4013.633850122297</v>
+        <v>3987255.54436028</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,31 +3324,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>57.00230029483962</v>
+        <v>1116414.371806687</v>
       </c>
       <c r="G83">
-        <v>278.9644565083289</v>
+        <v>4841466.406853987</v>
       </c>
       <c r="H83">
-        <v>2016.262117185362</v>
+        <v>3986124.678345021</v>
       </c>
       <c r="I83">
-        <v>-405.8871410062745</v>
+        <v>1116034.890980581</v>
       </c>
       <c r="J83">
-        <v>948.4270869311929</v>
+        <v>4841860.794672798</v>
       </c>
       <c r="K83">
-        <v>3867.269806415117</v>
+        <v>3987150.326515405</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,31 +3359,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>55.69309903956626</v>
+        <v>1116413.138777914</v>
       </c>
       <c r="G84">
-        <v>297.6316567486513</v>
+        <v>4841482.919656398</v>
       </c>
       <c r="H84">
-        <v>2032.246458988236</v>
+        <v>3986138.595139366</v>
       </c>
       <c r="I84">
-        <v>-333.050423959751</v>
+        <v>1116093.41100631</v>
       </c>
       <c r="J84">
-        <v>876.0757203391457</v>
+        <v>4841812.143086928</v>
       </c>
       <c r="K84">
-        <v>3699.833109188849</v>
+        <v>3987029.960010157</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,31 +3394,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>54.47009576276189</v>
+        <v>1116411.986931914</v>
       </c>
       <c r="G85">
-        <v>316.2988569889739</v>
+        <v>4841499.432458809</v>
       </c>
       <c r="H85">
-        <v>2047.522055071007</v>
+        <v>3986151.894863047</v>
       </c>
       <c r="I85">
-        <v>-258.420169764508</v>
+        <v>1116153.372033836</v>
       </c>
       <c r="J85">
-        <v>803.7243537470982</v>
+        <v>4841763.491501059</v>
       </c>
       <c r="K85">
-        <v>3511.323758443488</v>
+        <v>3986894.444844536</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,31 +3429,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>53.32423399373883</v>
+        <v>1116410.907739142</v>
       </c>
       <c r="G86">
-        <v>334.9660572292963</v>
+        <v>4841515.945261219</v>
       </c>
       <c r="H86">
-        <v>2062.149097525048</v>
+        <v>3986164.629922408</v>
       </c>
       <c r="I86">
-        <v>-181.9522142182815</v>
+        <v>1116214.809546502</v>
       </c>
       <c r="J86">
-        <v>731.3729871550511</v>
+        <v>4841714.83991519</v>
       </c>
       <c r="K86">
-        <v>3301.741754179039</v>
+        <v>3986743.78101854</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,31 +3464,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>52.24773506782942</v>
+        <v>1116409.893873517</v>
       </c>
       <c r="G87">
-        <v>353.6332574696188</v>
+        <v>4841532.458063629</v>
       </c>
       <c r="H87">
-        <v>2076.180421815769</v>
+        <v>3986176.846318739</v>
       </c>
       <c r="I87">
-        <v>-103.6013056159583</v>
+        <v>1116277.759901396</v>
       </c>
       <c r="J87">
-        <v>659.0216205630035</v>
+        <v>4841666.18832932</v>
       </c>
       <c r="K87">
-        <v>3071.087096395498</v>
+        <v>3986577.96853217</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,31 +3499,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>51.23387540582187</v>
+        <v>1116408.939002652</v>
       </c>
       <c r="G88">
-        <v>372.3004577099413</v>
+        <v>4841548.970866039</v>
       </c>
       <c r="H88">
-        <v>2089.662658828795</v>
+        <v>3986188.584651297</v>
       </c>
       <c r="I88">
-        <v>-23.32107797081743</v>
+        <v>1116342.260350865</v>
       </c>
       <c r="J88">
-        <v>586.670253970956</v>
+        <v>4841617.536743451</v>
       </c>
       <c r="K88">
-        <v>2819.359785092867</v>
+        <v>3986397.007385427</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,31 +3534,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>50.27680945202679</v>
+        <v>1116408.037621101</v>
       </c>
       <c r="G89">
-        <v>390.9676579502638</v>
+        <v>4841565.48366845</v>
       </c>
       <c r="H89">
-        <v>2102.637169873958</v>
+        <v>3986199.880931381</v>
       </c>
       <c r="I89">
-        <v>58.93597642363011</v>
+        <v>1116408.349064563</v>
       </c>
       <c r="J89">
-        <v>514.3188873789088</v>
+        <v>4841568.885157581</v>
       </c>
       <c r="K89">
-        <v>2546.559820271147</v>
+        <v>3986200.89757831</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,31 +3569,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>49.37142761054871</v>
+        <v>1116407.184916556</v>
       </c>
       <c r="G90">
-        <v>409.6348581905862</v>
+        <v>4841581.996470861</v>
       </c>
       <c r="H90">
-        <v>2115.140811938729</v>
+        <v>3986210.767248586</v>
       </c>
       <c r="I90">
-        <v>143.2185351074384</v>
+        <v>1116476.065152036</v>
       </c>
       <c r="J90">
-        <v>441.9675207868613</v>
+        <v>4841520.233571713</v>
       </c>
       <c r="K90">
-        <v>2252.687201930336</v>
+        <v>3985989.639110819</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,31 +3604,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>48.51324129066724</v>
+        <v>1116406.376661583</v>
       </c>
       <c r="G91">
-        <v>428.3020584309087</v>
+        <v>4841598.509273271</v>
       </c>
       <c r="H91">
-        <v>2127.20656888093</v>
+        <v>3986221.272320366</v>
       </c>
       <c r="I91">
-        <v>229.5764742603039</v>
+        <v>1116545.448685865</v>
       </c>
       <c r="J91">
-        <v>369.6161541948141</v>
+        <v>4841471.581985843</v>
       </c>
       <c r="K91">
-        <v>1937.741930070435</v>
+        <v>3985763.231982953</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,31 +3639,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>47.69828915469219</v>
+        <v>1116405.609125325</v>
       </c>
       <c r="G92">
-        <v>446.9692586712312</v>
+        <v>4841615.022075682</v>
       </c>
       <c r="H92">
-        <v>2138.864075791777</v>
+        <v>3986231.421948561</v>
       </c>
       <c r="I92">
-        <v>318.0608982169607</v>
+        <v>1116616.540725383</v>
       </c>
       <c r="J92">
-        <v>297.2647876027666</v>
+        <v>4841422.930399974</v>
       </c>
       <c r="K92">
-        <v>1601.724004691442</v>
+        <v>3985521.676194714</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,31 +3674,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>46.92306009799395</v>
+        <v>1116404.879000962</v>
       </c>
       <c r="G93">
-        <v>465.6364589115536</v>
+        <v>4841631.534878093</v>
       </c>
       <c r="H93">
-        <v>2150.140057517908</v>
+        <v>3986241.239401207</v>
       </c>
       <c r="I93">
-        <v>408.7241697093736</v>
+        <v>1116689.38334097</v>
       </c>
       <c r="J93">
-        <v>224.9134210107191</v>
+        <v>4841374.278814104</v>
       </c>
       <c r="K93">
-        <v>1244.63342579336</v>
+        <v>3985264.971746102</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,31 +3709,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>46.18442954394279</v>
+        <v>1116404.183345713</v>
       </c>
       <c r="G94">
-        <v>484.3036591518762</v>
+        <v>4841648.047680503</v>
       </c>
       <c r="H94">
-        <v>2161.058697672285</v>
+        <v>3986250.745733806</v>
       </c>
       <c r="I94">
-        <v>501.6199408536053</v>
+        <v>1116764.019638953</v>
       </c>
       <c r="J94">
-        <v>152.5620544186719</v>
+        <v>4841325.627228236</v>
       </c>
       <c r="K94">
-        <v>866.470193376188</v>
+        <v>3984993.118637116</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>45.47960641703828</v>
+        <v>1116403.519530894</v>
       </c>
       <c r="G95">
-        <v>502.9708593921986</v>
+        <v>4841664.560482914</v>
       </c>
       <c r="H95">
-        <v>2171.641950950732</v>
+        <v>3986259.960061253</v>
       </c>
       <c r="I95">
-        <v>596.8031848997235</v>
+        <v>1116840.493787109</v>
       </c>
       <c r="J95">
-        <v>80.21068782662439</v>
+        <v>4841276.975642366</v>
       </c>
       <c r="K95">
-        <v>467.2343074399248</v>
+        <v>3984706.116867755</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,31 +3779,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>44.80608874201441</v>
+        <v>1116402.885200099</v>
       </c>
       <c r="G96">
-        <v>521.6380596325212</v>
+        <v>4841681.073285324</v>
       </c>
       <c r="H96">
-        <v>2181.909808895794</v>
+        <v>3986268.899789216</v>
       </c>
       <c r="I96">
-        <v>694.3302287634976</v>
+        <v>1116918.851040808</v>
       </c>
       <c r="J96">
-        <v>7.859321234576882</v>
+        <v>4841228.324056497</v>
       </c>
       <c r="K96">
-        <v>46.92576798457153</v>
+        <v>3984403.966438022</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,31 +3814,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>44.1616262586195</v>
+        <v>1116402.278233995</v>
       </c>
       <c r="G97">
-        <v>540.3052598728436</v>
+        <v>4841697.586087734</v>
       </c>
       <c r="H97">
-        <v>2191.880527194176</v>
+        <v>3986277.580812041</v>
       </c>
       <c r="I97">
-        <v>794.2587863591812</v>
+        <v>1116999.137769793</v>
       </c>
       <c r="J97">
-        <v>-64.4920453574703</v>
+        <v>4841179.672470627</v>
       </c>
       <c r="K97">
-        <v>-394.4554249898708</v>
+        <v>3984086.667347914</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,31 +3849,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>43.54418877886845</v>
+        <v>1116401.696720515</v>
       </c>
       <c r="G98">
-        <v>558.972460113166</v>
+        <v>4841714.098890145</v>
       </c>
       <c r="H98">
-        <v>2201.570821001354</v>
+        <v>3986286.017682806</v>
       </c>
       <c r="I98">
-        <v>896.6479927530718</v>
+        <v>1117081.401485616</v>
       </c>
       <c r="J98">
-        <v>-136.8434119495178</v>
+        <v>4841131.020884759</v>
       </c>
       <c r="K98">
-        <v>-856.9092714834046</v>
+        <v>3983754.219597432</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,31 +3884,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>42.9519392728721</v>
+        <v>1116401.138929512</v>
       </c>
       <c r="G99">
-        <v>577.6396603534886</v>
+        <v>4841730.611692555</v>
       </c>
       <c r="H99">
-        <v>2210.996033542958</v>
+        <v>3986294.223760117</v>
       </c>
       <c r="I99">
-        <v>1001.55843915807</v>
+        <v>1117165.69086976</v>
       </c>
       <c r="J99">
-        <v>-209.1947785415653</v>
+        <v>4841082.369298888</v>
       </c>
       <c r="K99">
-        <v>-1340.43577149603</v>
+        <v>3983406.623186576</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,31 +3919,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>42.38321087040349</v>
+        <v>1116400.603291098</v>
       </c>
       <c r="G100">
-        <v>596.3068605938111</v>
+        <v>4841747.124494966</v>
       </c>
       <c r="H100">
-        <v>2220.17028226366</v>
+        <v>3986302.211335352</v>
       </c>
       <c r="I100">
-        <v>1109.05220878995</v>
+        <v>1117252.055802444</v>
       </c>
       <c r="J100">
-        <v>-281.5461451336129</v>
+        <v>4841033.717713019</v>
       </c>
       <c r="K100">
-        <v>-1845.034925027745</v>
+        <v>3983043.878115347</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,31 +3954,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>41.83648712239608</v>
+        <v>1116400.088377055</v>
       </c>
       <c r="G101">
-        <v>614.9740608341334</v>
+        <v>4841763.637297377</v>
       </c>
       <c r="H101">
-        <v>2229.106586018682</v>
+        <v>3986309.991743397</v>
       </c>
       <c r="I101">
-        <v>1219.19291360656</v>
+        <v>1117340.547392142</v>
       </c>
       <c r="J101">
-        <v>-353.8975117256597</v>
+        <v>4840985.06612715</v>
       </c>
       <c r="K101">
-        <v>-2370.706732078546</v>
+        <v>3982665.984383744</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,31 +3989,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>41.31038499009673</v>
+        <v>1116399.592884812</v>
       </c>
       <c r="G102">
-        <v>633.641261074456</v>
+        <v>4841780.150099787</v>
       </c>
       <c r="H102">
-        <v>2237.816976184253</v>
+        <v>3986317.575459392</v>
       </c>
       <c r="I102">
-        <v>1332.04573195169</v>
+        <v>1117431.218005824</v>
       </c>
       <c r="J102">
-        <v>-426.2488783177072</v>
+        <v>4840936.414541281</v>
       </c>
       <c r="K102">
-        <v>-2917.451192648441</v>
+        <v>3982272.941991767</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,31 +4024,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>40.80364012740009</v>
+        <v>1116399.115623586</v>
       </c>
       <c r="G103">
-        <v>652.3084613147785</v>
+        <v>4841796.662902198</v>
       </c>
       <c r="H103">
-        <v>2246.312594066766</v>
+        <v>3986324.972183534</v>
       </c>
       <c r="I103">
-        <v>1447.677447125878</v>
+        <v>1117524.121299953</v>
       </c>
       <c r="J103">
-        <v>-498.6002449097547</v>
+        <v>4840887.762955411</v>
       </c>
       <c r="K103">
-        <v>-3485.268306737427</v>
+        <v>3981864.750939416</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,31 +4059,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>40.31509409982013</v>
+        <v>1116398.655502343</v>
       </c>
       <c r="G104">
-        <v>670.9756615551008</v>
+        <v>4841813.175704609</v>
       </c>
       <c r="H104">
-        <v>2254.603776589372</v>
+        <v>3986332.190915683</v>
       </c>
       <c r="I104">
-        <v>1566.156486907003</v>
+        <v>1117619.312252231</v>
       </c>
       <c r="J104">
-        <v>-570.9516115018023</v>
+        <v>4840839.111369542</v>
       </c>
       <c r="K104">
-        <v>-4074.158074345503</v>
+        <v>3981441.411226691</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,31 +4094,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>39.84368324601628</v>
+        <v>1116398.211519308</v>
       </c>
       <c r="G105">
-        <v>689.6428617954234</v>
+        <v>4841829.688507019</v>
       </c>
       <c r="H105">
-        <v>2262.700131909193</v>
+        <v>3986339.240021196</v>
       </c>
       <c r="I105">
-        <v>1687.552964044023</v>
+        <v>1117716.847194134</v>
       </c>
       <c r="J105">
-        <v>-643.3029780938498</v>
+        <v>4840790.459783673</v>
       </c>
       <c r="K105">
-        <v>-4684.120495472669</v>
+        <v>3981002.922853592</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,31 +4129,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>39.38842893813199</v>
+        <v>1116397.782752792</v>
       </c>
       <c r="G106">
-        <v>708.3100620357459</v>
+        <v>4841846.201309429</v>
       </c>
       <c r="H106">
-        <v>2270.610606352544</v>
+        <v>3986346.127289209</v>
       </c>
       <c r="I106">
-        <v>1811.938717747827</v>
+        <v>1117816.783844251</v>
       </c>
       <c r="J106">
-        <v>-715.6543446858966</v>
+        <v>4840741.808197804</v>
       </c>
       <c r="K106">
-        <v>-5315.155570118921</v>
+        <v>3980549.28582012</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,31 +4164,31 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>38.9484290380025</v>
+        <v>1116397.368353146</v>
       </c>
       <c r="G107">
-        <v>726.9772622760684</v>
+        <v>4841862.71411184</v>
       </c>
       <c r="H107">
-        <v>2278.34354383756</v>
+        <v>3986352.859984367</v>
       </c>
       <c r="I107">
-        <v>1939.387356203794</v>
+        <v>1117919.181342437</v>
       </c>
       <c r="J107">
-        <v>-788.0057112779441</v>
+        <v>4840693.156611934</v>
       </c>
       <c r="K107">
-        <v>-5967.263298284268</v>
+        <v>3980080.500126274</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,31 +4199,31 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G108">
-        <v>-75.07766517257083</v>
+        <v>4841124.604168946</v>
       </c>
       <c r="H108">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I108">
-        <v>-1363.52253894378</v>
+        <v>1114860.457055766</v>
       </c>
       <c r="J108">
-        <v>2678.244774786184</v>
+        <v>4843220.74180836</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984364.424353947</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,31 +4234,31 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G109">
-        <v>-75.07766517257083</v>
+        <v>4841124.604168946</v>
       </c>
       <c r="H109">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I109">
-        <v>-1336.602973322683</v>
+        <v>1114890.071028314</v>
       </c>
       <c r="J109">
-        <v>2613.094343798071</v>
+        <v>4843172.090245567</v>
       </c>
       <c r="K109">
-        <v>302.7472727696329</v>
+        <v>3984668.219896309</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,31 +4269,31 @@
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G110">
-        <v>-75.07766517257083</v>
+        <v>4841124.604168946</v>
       </c>
       <c r="H110">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I110">
-        <v>-1309.020538163714</v>
+        <v>1114920.414217691</v>
       </c>
       <c r="J110">
-        <v>2547.943912809958</v>
+        <v>4843123.438682774</v>
       </c>
       <c r="K110">
-        <v>590.3981787752933</v>
+        <v>3984956.86680038</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,31 +4304,31 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G111">
-        <v>-75.07766517257083</v>
+        <v>4841124.604168946</v>
       </c>
       <c r="H111">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I111">
-        <v>-1280.758910914329</v>
+        <v>1114951.504580191</v>
       </c>
       <c r="J111">
-        <v>2482.793481821846</v>
+        <v>4843074.787119982</v>
       </c>
       <c r="K111">
-        <v>862.9527180169833</v>
+        <v>3985230.36506616</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,31 +4339,31 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G112">
-        <v>-75.07766517257083</v>
+        <v>4841124.604168946</v>
       </c>
       <c r="H112">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I112">
-        <v>-1251.801367094149</v>
+        <v>1114983.360514265</v>
       </c>
       <c r="J112">
-        <v>2417.643050833733</v>
+        <v>4843026.13555719</v>
       </c>
       <c r="K112">
-        <v>1120.410890494701</v>
+        <v>3985488.71469365</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,31 +4374,31 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G113">
-        <v>-75.07766517257083</v>
+        <v>4841124.604168946</v>
       </c>
       <c r="H113">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I113">
-        <v>-1222.130770397848</v>
+        <v>1115016.000871409</v>
       </c>
       <c r="J113">
-        <v>2352.492619845621</v>
+        <v>4842977.483994397</v>
       </c>
       <c r="K113">
-        <v>1362.772696208449</v>
+        <v>3985731.915682848</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,31 +4409,31 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G114">
-        <v>-75.07766517257083</v>
+        <v>4841124.604168946</v>
       </c>
       <c r="H114">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I114">
-        <v>-1191.72956255435</v>
+        <v>1115049.444967319</v>
       </c>
       <c r="J114">
-        <v>2287.342188857508</v>
+        <v>4842928.832431603</v>
       </c>
       <c r="K114">
-        <v>1590.038135158225</v>
+        <v>3985959.968033755</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,31 +4444,31 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G115">
-        <v>-75.07766517257083</v>
+        <v>4841124.604168946</v>
       </c>
       <c r="H115">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I115">
-        <v>-1160.579752936304</v>
+        <v>1115083.712593322</v>
       </c>
       <c r="J115">
-        <v>2222.191757869395</v>
+        <v>4842880.180868811</v>
       </c>
       <c r="K115">
-        <v>1802.20720734403</v>
+        <v>3986172.871746372</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,31 +4479,31 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>137.3226287032456</v>
+        <v>1116577.775553558</v>
       </c>
       <c r="G116">
-        <v>-62.6802293553375</v>
+        <v>4841141.116988296</v>
       </c>
       <c r="H116">
-        <v>844.8547280150033</v>
+        <v>3985230.522236371</v>
       </c>
       <c r="I116">
-        <v>-1128.662907913713</v>
+        <v>1115118.824028091</v>
       </c>
       <c r="J116">
-        <v>2157.041326881282</v>
+        <v>4842831.529306019</v>
       </c>
       <c r="K116">
-        <v>1999.279912765863</v>
+        <v>3986370.626820697</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,31 +4514,31 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>106.5783794452762</v>
+        <v>1116529.095021541</v>
       </c>
       <c r="G117">
-        <v>-50.28279353810417</v>
+        <v>4841157.629807645</v>
       </c>
       <c r="H117">
-        <v>1040.855339839863</v>
+        <v>3985429.776752836</v>
       </c>
       <c r="I117">
-        <v>-1095.960139945399</v>
+        <v>1115154.800049638</v>
       </c>
       <c r="J117">
-        <v>2091.89089589317</v>
+        <v>4842782.877743226</v>
       </c>
       <c r="K117">
-        <v>2181.256251423725</v>
+        <v>3986553.233256732</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,31 +4549,31 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>88.51767530425026</v>
+        <v>1116500.497651059</v>
       </c>
       <c r="G118">
-        <v>-37.88535772087085</v>
+        <v>4841174.142626995</v>
       </c>
       <c r="H118">
-        <v>1157.603328094585</v>
+        <v>3985548.462933105</v>
       </c>
       <c r="I118">
-        <v>-1062.452096401861</v>
+        <v>1115191.661947619</v>
       </c>
       <c r="J118">
-        <v>2026.740464905057</v>
+        <v>4842734.226180433</v>
       </c>
       <c r="K118">
-        <v>2348.136223317616</v>
+        <v>3986720.691054475</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,31 +4584,31 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>77.11643385014021</v>
+        <v>1116482.444892803</v>
       </c>
       <c r="G119">
-        <v>-25.48792190363752</v>
+        <v>4841190.655446346</v>
       </c>
       <c r="H119">
-        <v>1241.035224605365</v>
+        <v>3985633.279924451</v>
       </c>
       <c r="I119">
-        <v>-1028.118948112897</v>
+        <v>1115229.431535925</v>
       </c>
       <c r="J119">
-        <v>1961.590033916944</v>
+        <v>4842685.574617641</v>
       </c>
       <c r="K119">
-        <v>2499.919828447536</v>
+        <v>3986873.000213928</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,31 +4619,31 @@
         <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>69.16525434039994</v>
+        <v>1116469.854972475</v>
       </c>
       <c r="G120">
-        <v>-13.09048608640419</v>
+        <v>4841207.168265695</v>
       </c>
       <c r="H120">
-        <v>1306.003597719637</v>
+        <v>3985699.326870171</v>
       </c>
       <c r="I120">
-        <v>-992.9403776332358</v>
+        <v>1115268.131165596</v>
       </c>
       <c r="J120">
-        <v>1896.439602928831</v>
+        <v>4842636.923054849</v>
       </c>
       <c r="K120">
-        <v>2636.607066813484</v>
+        <v>3987010.160735089</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,31 +4654,31 @@
         <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>63.23343631547511</v>
+        <v>1116460.462514885</v>
       </c>
       <c r="G121">
-        <v>-0.6930502691708735</v>
+        <v>4841223.681085045</v>
       </c>
       <c r="H121">
-        <v>1359.217734706595</v>
+        <v>3985753.424441785</v>
       </c>
       <c r="I121">
-        <v>-956.8955672192039</v>
+        <v>1115307.783738045</v>
       </c>
       <c r="J121">
-        <v>1831.289171940719</v>
+        <v>4842588.271492057</v>
       </c>
       <c r="K121">
-        <v>2758.197938415461</v>
+        <v>3987132.17261796</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,31 +4689,31 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>58.59558297381303</v>
+        <v>1116453.118924667</v>
       </c>
       <c r="G122">
-        <v>11.70438554806246</v>
+        <v>4841240.193904394</v>
       </c>
       <c r="H122">
-        <v>1404.286224290819</v>
+        <v>3985799.24113601</v>
       </c>
       <c r="I122">
-        <v>-919.963186509344</v>
+        <v>1115348.41271861</v>
       </c>
       <c r="J122">
-        <v>1766.138740952606</v>
+        <v>4842539.619929263</v>
       </c>
       <c r="K122">
-        <v>2864.692443253467</v>
+        <v>3987239.03586254</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,31 +4724,31 @@
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>54.84322192723363</v>
+        <v>1116447.177425477</v>
       </c>
       <c r="G123">
-        <v>24.10182136529578</v>
+        <v>4841256.706723745</v>
       </c>
       <c r="H123">
-        <v>1443.374930809917</v>
+        <v>3985838.978773786</v>
       </c>
       <c r="I123">
-        <v>-882.1213799016709</v>
+        <v>1115390.042150444</v>
       </c>
       <c r="J123">
-        <v>1700.988309964494</v>
+        <v>4842490.968366471</v>
       </c>
       <c r="K123">
-        <v>2956.090581327501</v>
+        <v>3987330.750468828</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,31 +4759,31 @@
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>51.72742521742928</v>
+        <v>1116442.243864074</v>
       </c>
       <c r="G124">
-        <v>36.49925718252911</v>
+        <v>4841273.219543095</v>
       </c>
       <c r="H124">
-        <v>1477.886390694202</v>
+        <v>3985874.063175756</v>
       </c>
       <c r="I124">
-        <v>-843.3477536201078</v>
+        <v>1115432.696668739</v>
       </c>
       <c r="J124">
-        <v>1635.837878976381</v>
+        <v>4842442.316803679</v>
       </c>
       <c r="K124">
-        <v>3032.392352637565</v>
+        <v>3987407.316436826</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,31 +4794,31 @@
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>49.08702194044385</v>
+        <v>1116438.06304199</v>
       </c>
       <c r="G125">
-        <v>48.89669299976244</v>
+        <v>4841289.732362445</v>
       </c>
       <c r="H125">
-        <v>1508.781091993014</v>
+        <v>3985905.470775515</v>
       </c>
       <c r="I125">
-        <v>-803.619362462443</v>
+        <v>1115476.401515305</v>
       </c>
       <c r="J125">
-        <v>1570.687447988268</v>
+        <v>4842393.665240887</v>
       </c>
       <c r="K125">
-        <v>3093.597757183657</v>
+        <v>3987468.733766533</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,31 +4829,31 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>46.81257211603177</v>
+        <v>1116434.461671647</v>
       </c>
       <c r="G126">
-        <v>61.29412881699577</v>
+        <v>4841306.245181794</v>
       </c>
       <c r="H126">
-        <v>1536.745703442708</v>
+        <v>3985933.899641531</v>
       </c>
       <c r="I126">
-        <v>-762.9126962219702</v>
+        <v>1115521.18255351</v>
       </c>
       <c r="J126">
-        <v>1505.537017000155</v>
+        <v>4842345.013678093</v>
       </c>
       <c r="K126">
-        <v>3139.706794965778</v>
+        <v>3987515.002457949</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,31 +4864,31 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>44.82685989455282</v>
+        <v>1116431.317489248</v>
       </c>
       <c r="G127">
-        <v>73.69156463422908</v>
+        <v>4841322.758001145</v>
       </c>
       <c r="H127">
-        <v>1562.288182942569</v>
+        <v>3985959.866164567</v>
       </c>
       <c r="I127">
-        <v>-721.2036657747725</v>
+        <v>1115567.066283583</v>
       </c>
       <c r="J127">
-        <v>1440.386586012043</v>
+        <v>4842296.3621153</v>
       </c>
       <c r="K127">
-        <v>3170.719465983927</v>
+        <v>3987546.122511074</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,31 +4899,31 @@
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>43.07366368180018</v>
+        <v>1116428.541473362</v>
       </c>
       <c r="G128">
-        <v>86.08900045146243</v>
+        <v>4841339.270820494</v>
       </c>
       <c r="H128">
-        <v>1585.794871632633</v>
+        <v>3985983.763099607</v>
       </c>
       <c r="I128">
-        <v>-678.4675888244166</v>
+        <v>1115614.079858297</v>
       </c>
       <c r="J128">
-        <v>1375.23615502393</v>
+        <v>4842247.710552508</v>
       </c>
       <c r="K128">
-        <v>3186.635770238105</v>
+        <v>3987562.093925909</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,31 +4934,31 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>41.51095763089111</v>
+        <v>1116426.067080141</v>
       </c>
       <c r="G129">
-        <v>98.48643626869574</v>
+        <v>4841355.783639845</v>
       </c>
       <c r="H129">
-        <v>1607.566464492219</v>
+        <v>3986005.896133619</v>
       </c>
       <c r="I129">
-        <v>-634.6791752956281</v>
+        <v>1115662.251099036</v>
       </c>
       <c r="J129">
-        <v>1310.085724035817</v>
+        <v>4842199.058989716</v>
       </c>
       <c r="K129">
-        <v>3187.455707728312</v>
+        <v>3987562.916702452</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,31 +4969,31 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>40.10661944754647</v>
+        <v>1116423.843447053</v>
       </c>
       <c r="G130">
-        <v>110.8838720859291</v>
+        <v>4841372.296459194</v>
       </c>
       <c r="H130">
-        <v>1627.841592955663</v>
+        <v>3986026.507859678</v>
       </c>
       <c r="I130">
-        <v>-589.812512368295</v>
+        <v>1115711.608512262</v>
       </c>
       <c r="J130">
-        <v>1244.935293047704</v>
+        <v>4842150.407426923</v>
       </c>
       <c r="K130">
-        <v>3173.179278454547</v>
+        <v>3987548.590840704</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,31 +5004,31 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>38.83562256390862</v>
+        <v>1116421.83094696</v>
       </c>
       <c r="G131">
-        <v>123.2813079031624</v>
+        <v>4841388.809278543</v>
       </c>
       <c r="H131">
-        <v>1646.812810859284</v>
+        <v>3986045.794028302</v>
       </c>
       <c r="I131">
-        <v>-543.841049142949</v>
+        <v>1115762.18130638</v>
       </c>
       <c r="J131">
-        <v>1179.784862059592</v>
+        <v>4842101.75586413</v>
       </c>
       <c r="K131">
-        <v>3143.806482416812</v>
+        <v>3987519.116340665</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,31 +5039,31 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>37.67814257892136</v>
+        <v>1116419.998189849</v>
       </c>
       <c r="G132">
-        <v>135.6787437203957</v>
+        <v>4841405.322097894</v>
       </c>
       <c r="H132">
-        <v>1664.637743351544</v>
+        <v>3986063.914881455</v>
       </c>
       <c r="I132">
-        <v>-496.7375809286498</v>
+        <v>1115813.999409028</v>
       </c>
       <c r="J132">
-        <v>1114.634431071479</v>
+        <v>4842053.104301338</v>
       </c>
       <c r="K132">
-        <v>3099.337319615105</v>
+        <v>3987474.493202335</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,31 +5074,31 @@
         <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>36.61824615041261</v>
+        <v>1116418.319946819</v>
       </c>
       <c r="G133">
-        <v>148.076179537629</v>
+        <v>4841421.834917243</v>
       </c>
       <c r="H133">
-        <v>1681.447055302917</v>
+        <v>3986081.00325324</v>
       </c>
       <c r="I133">
-        <v>-448.4742331439697</v>
+        <v>1115867.093484781</v>
       </c>
       <c r="J133">
-        <v>1049.484000083366</v>
+        <v>4842004.452738545</v>
       </c>
       <c r="K133">
-        <v>3039.771790049427</v>
+        <v>3987414.721425715</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,31 +5109,31 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>35.64296200204716</v>
+        <v>1116416.775679115</v>
       </c>
       <c r="G134">
-        <v>160.4736153548624</v>
+        <v>4841438.347736593</v>
       </c>
       <c r="H134">
-        <v>1697.350269475007</v>
+        <v>3986097.170484662</v>
       </c>
       <c r="I134">
-        <v>-399.0224448215578</v>
+        <v>1115921.494953305</v>
       </c>
       <c r="J134">
-        <v>984.3335690952538</v>
+        <v>4841955.801175753</v>
       </c>
       <c r="K134">
-        <v>2965.109893719777</v>
+        <v>3987339.801010803</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,31 +5144,31 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>34.74160915635891</v>
+        <v>1116415.348474447</v>
       </c>
       <c r="G135">
-        <v>172.8710511720957</v>
+        <v>4841454.860555943</v>
       </c>
       <c r="H135">
-        <v>1712.440095218438</v>
+        <v>3986112.510824184</v>
       </c>
       <c r="I135">
-        <v>-348.352951706517</v>
+        <v>1115977.236007942</v>
       </c>
       <c r="J135">
-        <v>919.183138107141</v>
+        <v>4841907.14961296</v>
       </c>
       <c r="K135">
-        <v>2875.351630626156</v>
+        <v>3987249.731957601</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,31 +5179,31 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>33.9053023143038</v>
+        <v>1116414.024263806</v>
       </c>
       <c r="G136">
-        <v>185.268486989329</v>
+        <v>4841471.373375293</v>
       </c>
       <c r="H136">
-        <v>1726.795703069795</v>
+        <v>3986127.104756695</v>
       </c>
       <c r="I136">
-        <v>-296.4357689385974</v>
+        <v>1116034.349634769</v>
       </c>
       <c r="J136">
-        <v>854.0327071190281</v>
+        <v>4841858.498050168</v>
       </c>
       <c r="K136">
-        <v>2770.497000768564</v>
+        <v>3987144.514266108</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,31 +5214,31 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>33.12658173424455</v>
+        <v>1116412.791235417</v>
       </c>
       <c r="G137">
-        <v>197.6659228065623</v>
+        <v>4841487.886194643</v>
       </c>
       <c r="H137">
-        <v>1740.485239021664</v>
+        <v>3986141.021559511</v>
       </c>
       <c r="I137">
-        <v>-243.2401733079503</v>
+        <v>1116092.869632113</v>
       </c>
       <c r="J137">
-        <v>788.8822761309157</v>
+        <v>4841809.846487375</v>
       </c>
       <c r="K137">
-        <v>2650.546004147001</v>
+        <v>3987024.147936323</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,31 +5249,31 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>32.39913221699778</v>
+        <v>1116411.639389776</v>
       </c>
       <c r="G138">
-        <v>210.0633586237957</v>
+        <v>4841504.399013993</v>
       </c>
       <c r="H138">
-        <v>1753.56778094552</v>
+        <v>3986154.321291287</v>
       </c>
       <c r="I138">
-        <v>-188.7346850739492</v>
+        <v>1116152.830630554</v>
       </c>
       <c r="J138">
-        <v>723.7318451428029</v>
+        <v>4841761.194924582</v>
       </c>
       <c r="K138">
-        <v>2515.498640761466</v>
+        <v>3986888.632968248</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,31 +5284,31 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>31.71756692071715</v>
+        <v>1116410.56019734</v>
       </c>
       <c r="G139">
-        <v>222.460794441029</v>
+        <v>4841520.911833342</v>
       </c>
       <c r="H139">
-        <v>1766.094879403093</v>
+        <v>3986167.056358401</v>
       </c>
       <c r="I139">
-        <v>-132.8870493363151</v>
+        <v>1116214.268113419</v>
       </c>
       <c r="J139">
-        <v>658.5814141546904</v>
+        <v>4841712.54336179</v>
       </c>
       <c r="K139">
-        <v>2365.354910611961</v>
+        <v>3986737.969361881</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,31 +5319,31 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>31.07725905006643</v>
+        <v>1116409.546332031</v>
       </c>
       <c r="G140">
-        <v>234.8582302582623</v>
+        <v>4841537.424652693</v>
       </c>
       <c r="H140">
-        <v>1778.111784490523</v>
+        <v>3986179.272762167</v>
       </c>
       <c r="I140">
-        <v>-75.66421694752454</v>
+        <v>1116277.218437777</v>
       </c>
       <c r="J140">
-        <v>593.4309831665776</v>
+        <v>4841663.891798997</v>
       </c>
       <c r="K140">
-        <v>2200.114813698483</v>
+        <v>3986572.157117224</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,31 +5354,31 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>30.47420938072255</v>
+        <v>1116408.591461463</v>
       </c>
       <c r="G141">
-        <v>247.2556660754957</v>
+        <v>4841553.937472042</v>
       </c>
       <c r="H141">
-        <v>1789.658432490021</v>
+        <v>3986191.011101872</v>
       </c>
       <c r="I141">
-        <v>-17.03232495520074</v>
+        <v>1116341.71885596</v>
       </c>
       <c r="J141">
-        <v>528.2805521784647</v>
+        <v>4841615.240236204</v>
       </c>
       <c r="K141">
-        <v>2019.778350021035</v>
+        <v>3986391.196234276</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,31 +5389,31 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>29.90494094189978</v>
+        <v>1116407.690080192</v>
       </c>
       <c r="G142">
-        <v>259.653101892729</v>
+        <v>4841570.450291392</v>
       </c>
       <c r="H142">
-        <v>1800.770246639212</v>
+        <v>3986202.307388831</v>
       </c>
       <c r="I142">
-        <v>43.04332343708265</v>
+        <v>1116407.807537601</v>
       </c>
       <c r="J142">
-        <v>463.1301211903522</v>
+        <v>4841566.588673412</v>
       </c>
       <c r="K142">
-        <v>1824.345519579615</v>
+        <v>3986195.086713037</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,31 +5424,31 @@
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>29.36641451601141</v>
+        <v>1116406.837375913</v>
       </c>
       <c r="G143">
-        <v>272.0505377099623</v>
+        <v>4841586.963110742</v>
       </c>
       <c r="H143">
-        <v>1811.478792520296</v>
+        <v>3986213.193712663</v>
       </c>
       <c r="I143">
-        <v>104.5982794024428</v>
+        <v>1116475.523592227</v>
       </c>
       <c r="J143">
-        <v>397.9796902022394</v>
+        <v>4841517.93711062</v>
       </c>
       <c r="K143">
-        <v>1613.816322374224</v>
+        <v>3985983.828553507</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,31 +5459,31 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>28.85596026298866</v>
+        <v>1116406.029121192</v>
       </c>
       <c r="G144">
-        <v>284.4479735271956</v>
+        <v>4841603.475930092</v>
       </c>
       <c r="H144">
-        <v>1821.812318635026</v>
+        <v>3986223.698790837</v>
       </c>
       <c r="I144">
-        <v>167.6689695289295</v>
+        <v>1116544.907092401</v>
       </c>
       <c r="J144">
-        <v>332.8292592141269</v>
+        <v>4841469.285547827</v>
       </c>
       <c r="K144">
-        <v>1388.190758404863</v>
+        <v>3985757.421755686</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,31 +5494,31 @@
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>28.37122195595541</v>
+        <v>1116405.261585173</v>
       </c>
       <c r="G145">
-        <v>296.845409344429</v>
+        <v>4841619.988749442</v>
       </c>
       <c r="H145">
-        <v>1831.796205487128</v>
+        <v>3986233.848425211</v>
       </c>
       <c r="I145">
-        <v>232.2927173758092</v>
+        <v>1116615.999097435</v>
       </c>
       <c r="J145">
-        <v>267.678828226014</v>
+        <v>4841420.633985034</v>
       </c>
       <c r="K145">
-        <v>1147.468827671529</v>
+        <v>3985515.866319573</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,31 +5529,31 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>27.91011116929885</v>
+        <v>1116404.531461037</v>
       </c>
       <c r="G146">
-        <v>309.2428451616623</v>
+        <v>4841636.501568792</v>
       </c>
       <c r="H146">
-        <v>1841.453341147524</v>
+        <v>3986243.665883834</v>
       </c>
       <c r="I146">
-        <v>298.5077655606611</v>
+        <v>1116688.84167769</v>
       </c>
       <c r="J146">
-        <v>202.5283972379013</v>
+        <v>4841371.982422242</v>
       </c>
       <c r="K146">
-        <v>891.6505301742236</v>
+        <v>3985259.162245171</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,31 +5564,31 @@
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>27.47076938652604</v>
+        <v>1116403.835806005</v>
       </c>
       <c r="G147">
-        <v>321.6402809788956</v>
+        <v>4841653.014388141</v>
       </c>
       <c r="H147">
-        <v>1850.804437287872</v>
+        <v>3986253.172222219</v>
       </c>
       <c r="I147">
-        <v>366.3532983903365</v>
+        <v>1116763.477939469</v>
       </c>
       <c r="J147">
-        <v>137.3779662497887</v>
+        <v>4841323.33085945</v>
       </c>
       <c r="K147">
-        <v>620.735865912948</v>
+        <v>3984987.309532477</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,31 +5599,31 @@
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>27.05153645957039</v>
+        <v>1116403.171991392</v>
       </c>
       <c r="G148">
-        <v>334.0377167961289</v>
+        <v>4841669.527207492</v>
       </c>
       <c r="H148">
-        <v>1859.86829665911</v>
+        <v>3986262.386555274</v>
       </c>
       <c r="I148">
-        <v>435.8694650491985</v>
+        <v>1116839.95205053</v>
       </c>
       <c r="J148">
-        <v>72.22753526167592</v>
+        <v>4841274.679296657</v>
       </c>
       <c r="K148">
-        <v>334.7248348877003</v>
+        <v>3984700.308181492</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,31 +5634,31 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>26.65092419887925</v>
+        <v>1116402.537660795</v>
       </c>
       <c r="G149">
-        <v>346.4351526133623</v>
+        <v>4841686.040026842</v>
       </c>
       <c r="H149">
-        <v>1868.66204070069</v>
+        <v>3986271.326288679</v>
       </c>
       <c r="I149">
-        <v>507.0974033583338</v>
+        <v>1116918.309266222</v>
       </c>
       <c r="J149">
-        <v>7.077104273563111</v>
+        <v>4841226.027733864</v>
       </c>
       <c r="K149">
-        <v>33.6174370984815</v>
+        <v>3984398.158192217</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,31 +5669,31 @@
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>26.26759413646579</v>
+        <v>1116401.93069488</v>
       </c>
       <c r="G150">
-        <v>358.8325884305956</v>
+        <v>4841702.552846191</v>
       </c>
       <c r="H150">
-        <v>1877.201304205874</v>
+        <v>3986280.007316788</v>
       </c>
       <c r="I150">
-        <v>580.0792641198293</v>
+        <v>1116998.595956262</v>
       </c>
       <c r="J150">
-        <v>-58.0733267145494</v>
+        <v>4841177.376171071</v>
       </c>
       <c r="K150">
-        <v>-282.5863274547077</v>
+        <v>3984080.85956465</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,31 +5704,31 @@
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>25.90033870461725</v>
+        <v>1116401.349181581</v>
       </c>
       <c r="G151">
-        <v>371.2300242478289</v>
+        <v>4841719.065665541</v>
       </c>
       <c r="H151">
-        <v>1885.500402604389</v>
+        <v>3986288.444192689</v>
       </c>
       <c r="I151">
-        <v>654.8582360604961</v>
+        <v>1117080.859632182</v>
       </c>
       <c r="J151">
-        <v>-123.2237577026622</v>
+        <v>4841128.724608279</v>
       </c>
       <c r="K151">
-        <v>-613.886458771869</v>
+        <v>3983748.412298793</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,31 +5739,31 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>25.54806522718846</v>
+        <v>1116400.791390751</v>
       </c>
       <c r="G152">
-        <v>383.6274600650623</v>
+        <v>4841735.578484891</v>
       </c>
       <c r="H152">
-        <v>1893.572476358411</v>
+        <v>3986296.650274996</v>
       </c>
       <c r="I152">
-        <v>731.4785713898098</v>
+        <v>1117165.148975441</v>
       </c>
       <c r="J152">
-        <v>-188.374188690775</v>
+        <v>4841080.073045486</v>
       </c>
       <c r="K152">
-        <v>-960.2829568530025</v>
+        <v>3983400.816394644</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,31 +5774,31 @@
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>25.20978223999865</v>
+        <v>1116400.255752504</v>
       </c>
       <c r="G153">
-        <v>396.0248958822956</v>
+        <v>4841752.091304241</v>
       </c>
       <c r="H153">
-        <v>1901.429616129463</v>
+        <v>3986304.637855092</v>
       </c>
       <c r="I153">
-        <v>809.9856119871915</v>
+        <v>1117251.513866233</v>
       </c>
       <c r="J153">
-        <v>-253.5246196788878</v>
+        <v>4841031.421482693</v>
       </c>
       <c r="K153">
-        <v>-1321.775821698107</v>
+        <v>3983038.071852204</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,31 +5809,31 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>24.88458775025489</v>
+        <v>1116399.740838621</v>
       </c>
       <c r="G154">
-        <v>408.4223316995289</v>
+        <v>4841768.604123591</v>
       </c>
       <c r="H154">
-        <v>1909.08297170956</v>
+        <v>3986312.418267874</v>
       </c>
       <c r="I154">
-        <v>890.4258162341305</v>
+        <v>1117340.005413006</v>
       </c>
       <c r="J154">
-        <v>-318.6750506670001</v>
+        <v>4840982.769919901</v>
       </c>
       <c r="K154">
-        <v>-1698.365053307179</v>
+        <v>3982660.178671474</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,31 +5844,31 @@
         <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>24.57165911840065</v>
+        <v>1116399.245346532</v>
       </c>
       <c r="G155">
-        <v>420.8197675167623</v>
+        <v>4841785.11694294</v>
       </c>
       <c r="H155">
-        <v>1916.54284718</v>
+        <v>3986320.001988485</v>
       </c>
       <c r="I155">
-        <v>972.8467865070203</v>
+        <v>1117430.675982708</v>
       </c>
       <c r="J155">
-        <v>-383.8254816551129</v>
+        <v>4840934.118357109</v>
       </c>
       <c r="K155">
-        <v>-2090.050651680226</v>
+        <v>3982267.136852453</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,31 +5879,31 @@
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>24.27024430396192</v>
+        <v>1116398.768085455</v>
       </c>
       <c r="G156">
-        <v>433.2172033339955</v>
+        <v>4841801.62976229</v>
       </c>
       <c r="H156">
-        <v>1923.818784335892</v>
+        <v>3986327.39871713</v>
       </c>
       <c r="I156">
-        <v>1057.297297346977</v>
+        <v>1117523.579231773</v>
       </c>
       <c r="J156">
-        <v>-448.9759126432257</v>
+        <v>4840885.466794316</v>
       </c>
       <c r="K156">
-        <v>-2496.832616817244</v>
+        <v>3981858.94639514</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,31 +5914,31 @@
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>23.97965426331665</v>
+        <v>1116398.307964355</v>
       </c>
       <c r="G157">
-        <v>445.6146391512289</v>
+        <v>4841818.142581641</v>
       </c>
       <c r="H157">
-        <v>1930.919636071077</v>
+        <v>3986334.617453672</v>
       </c>
       <c r="I157">
-        <v>1143.827324323322</v>
+        <v>1117618.770137877</v>
       </c>
       <c r="J157">
-        <v>-514.1263436313385</v>
+        <v>4840836.815231523</v>
       </c>
       <c r="K157">
-        <v>-2918.710948718233</v>
+        <v>3981435.607299537</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,31 +5949,31 @@
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>23.69925632446522</v>
+        <v>1116397.863981458</v>
       </c>
       <c r="G158">
-        <v>458.0120749684622</v>
+        <v>4841834.65540099</v>
       </c>
       <c r="H158">
-        <v>1937.853631139293</v>
+        <v>3986341.666563477</v>
       </c>
       <c r="I158">
-        <v>1232.488073607796</v>
+        <v>1117716.30503247</v>
       </c>
       <c r="J158">
-        <v>-579.2767746194513</v>
+        <v>4840788.163668731</v>
       </c>
       <c r="K158">
-        <v>-3355.685647383194</v>
+        <v>3980997.119565642</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,31 +5984,31 @@
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>23.42846839382265</v>
+        <v>1116397.435215076</v>
       </c>
       <c r="G159">
-        <v>470.4095107856955</v>
+        <v>4841851.16822034</v>
       </c>
       <c r="H159">
-        <v>1944.628431479781</v>
+        <v>3986348.553835682</v>
       </c>
       <c r="I159">
-        <v>1323.332012277004</v>
+        <v>1117816.241634111</v>
       </c>
       <c r="J159">
-        <v>-644.4272056075636</v>
+        <v>4840739.512105939</v>
       </c>
       <c r="K159">
-        <v>-3807.756712812122</v>
+        <v>3980543.483193458</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,31 +6019,1886 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>23.16675387432098</v>
+        <v>1116397.020815559</v>
       </c>
       <c r="G160">
-        <v>482.8069466029289</v>
+        <v>4841867.68103969</v>
       </c>
       <c r="H160">
-        <v>1951.251183108857</v>
+        <v>3986355.286534938</v>
       </c>
       <c r="I160">
-        <v>1416.412899361052</v>
+        <v>1117918.639082629</v>
       </c>
       <c r="J160">
-        <v>-709.5776365956764</v>
+        <v>4840690.860543146</v>
       </c>
       <c r="K160">
-        <v>-4274.924145005026</v>
+        <v>3980074.698182982</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>35</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G161">
+        <v>4841124.483739379</v>
+      </c>
+      <c r="H161">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I161">
+        <v>1114861.202791906</v>
+      </c>
+      <c r="J161">
+        <v>4843230.779348654</v>
+      </c>
+      <c r="K161">
+        <v>3984362.8585045</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>35</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G162">
+        <v>4841124.483739379</v>
+      </c>
+      <c r="H162">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I162">
+        <v>1114890.816784263</v>
+      </c>
+      <c r="J162">
+        <v>4843182.127685032</v>
+      </c>
+      <c r="K162">
+        <v>3984666.653927471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>35</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G163">
+        <v>4841124.483739379</v>
+      </c>
+      <c r="H163">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I163">
+        <v>1114921.159993936</v>
+      </c>
+      <c r="J163">
+        <v>4843133.476021408</v>
+      </c>
+      <c r="K163">
+        <v>3984955.300718104</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>35</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G164">
+        <v>4841124.483739379</v>
+      </c>
+      <c r="H164">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I164">
+        <v>1114952.250377233</v>
+      </c>
+      <c r="J164">
+        <v>4843084.824357786</v>
+      </c>
+      <c r="K164">
+        <v>3985228.7988764</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>35</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G165">
+        <v>4841124.483739379</v>
+      </c>
+      <c r="H165">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I165">
+        <v>1114984.106332616</v>
+      </c>
+      <c r="J165">
+        <v>4843036.172694163</v>
+      </c>
+      <c r="K165">
+        <v>3985487.148402358</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>35</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G166">
+        <v>4841124.483739379</v>
+      </c>
+      <c r="H166">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I166">
+        <v>1115016.746711593</v>
+      </c>
+      <c r="J166">
+        <v>4842987.521030542</v>
+      </c>
+      <c r="K166">
+        <v>3985730.349295979</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>35</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G167">
+        <v>4841124.483739379</v>
+      </c>
+      <c r="H167">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I167">
+        <v>1115050.190829874</v>
+      </c>
+      <c r="J167">
+        <v>4842938.869366918</v>
+      </c>
+      <c r="K167">
+        <v>3985958.401557262</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>35</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G168">
+        <v>4841124.483739379</v>
+      </c>
+      <c r="H168">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I168">
+        <v>1115084.458478799</v>
+      </c>
+      <c r="J168">
+        <v>4842890.217703296</v>
+      </c>
+      <c r="K168">
+        <v>3986171.305186208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>35</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116578.910070107</v>
+      </c>
+      <c r="G169">
+        <v>4841140.996558319</v>
+      </c>
+      <c r="H169">
+        <v>3985222.287934085</v>
+      </c>
+      <c r="I169">
+        <v>1115119.569937054</v>
+      </c>
+      <c r="J169">
+        <v>4842841.566039673</v>
+      </c>
+      <c r="K169">
+        <v>3986369.060182815</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>35</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116530.229488627</v>
+      </c>
+      <c r="G170">
+        <v>4841157.509377257</v>
+      </c>
+      <c r="H170">
+        <v>3985421.54203885</v>
+      </c>
+      <c r="I170">
+        <v>1115155.545982666</v>
+      </c>
+      <c r="J170">
+        <v>4842792.914376051</v>
+      </c>
+      <c r="K170">
+        <v>3986551.666547086</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>35</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116501.632089089</v>
+      </c>
+      <c r="G171">
+        <v>4841174.022196196</v>
+      </c>
+      <c r="H171">
+        <v>3985540.227973889</v>
+      </c>
+      <c r="I171">
+        <v>1115192.407905304</v>
+      </c>
+      <c r="J171">
+        <v>4842744.262712427</v>
+      </c>
+      <c r="K171">
+        <v>3986719.124279019</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>35</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116483.579312489</v>
+      </c>
+      <c r="G172">
+        <v>4841190.535015136</v>
+      </c>
+      <c r="H172">
+        <v>3985625.044789986</v>
+      </c>
+      <c r="I172">
+        <v>1115230.177518874</v>
+      </c>
+      <c r="J172">
+        <v>4842695.611048806</v>
+      </c>
+      <c r="K172">
+        <v>3986871.433378614</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>35</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116470.989379369</v>
+      </c>
+      <c r="G173">
+        <v>4841207.047834074</v>
+      </c>
+      <c r="H173">
+        <v>3985691.09159924</v>
+      </c>
+      <c r="I173">
+        <v>1115268.877174432</v>
+      </c>
+      <c r="J173">
+        <v>4842646.959385183</v>
+      </c>
+      <c r="K173">
+        <v>3987008.593845872</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>35</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116461.596912236</v>
+      </c>
+      <c r="G174">
+        <v>4841223.560653014</v>
+      </c>
+      <c r="H174">
+        <v>3985745.189059076</v>
+      </c>
+      <c r="I174">
+        <v>1115308.529773404</v>
+      </c>
+      <c r="J174">
+        <v>4842598.307721561</v>
+      </c>
+      <c r="K174">
+        <v>3987130.605680792</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>35</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116454.253314557</v>
+      </c>
+      <c r="G175">
+        <v>4841240.073471952</v>
+      </c>
+      <c r="H175">
+        <v>3985791.005658634</v>
+      </c>
+      <c r="I175">
+        <v>1115349.158781147</v>
+      </c>
+      <c r="J175">
+        <v>4842549.656057937</v>
+      </c>
+      <c r="K175">
+        <v>3987237.468883375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>35</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116448.31180933</v>
+      </c>
+      <c r="G176">
+        <v>4841256.586290892</v>
+      </c>
+      <c r="H176">
+        <v>3985830.743214305</v>
+      </c>
+      <c r="I176">
+        <v>1115390.788240827</v>
+      </c>
+      <c r="J176">
+        <v>4842501.004394315</v>
+      </c>
+      <c r="K176">
+        <v>3987329.183453619</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>35</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116443.378242914</v>
+      </c>
+      <c r="G177">
+        <v>4841273.099109831</v>
+      </c>
+      <c r="H177">
+        <v>3985865.827543784</v>
+      </c>
+      <c r="I177">
+        <v>1115433.442787653</v>
+      </c>
+      <c r="J177">
+        <v>4842452.352730692</v>
+      </c>
+      <c r="K177">
+        <v>3987405.749391527</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>35</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116439.197416582</v>
+      </c>
+      <c r="G178">
+        <v>4841289.611928769</v>
+      </c>
+      <c r="H178">
+        <v>3985897.235078648</v>
+      </c>
+      <c r="I178">
+        <v>1115477.147663453</v>
+      </c>
+      <c r="J178">
+        <v>4842403.70106707</v>
+      </c>
+      <c r="K178">
+        <v>3987467.166697097</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>35</v>
+      </c>
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116435.596042579</v>
+      </c>
+      <c r="G179">
+        <v>4841306.124747709</v>
+      </c>
+      <c r="H179">
+        <v>3985925.663885924</v>
+      </c>
+      <c r="I179">
+        <v>1115521.928731613</v>
+      </c>
+      <c r="J179">
+        <v>4842355.049403447</v>
+      </c>
+      <c r="K179">
+        <v>3987513.43537033</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>35</v>
+      </c>
+      <c r="B180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.451856986</v>
+      </c>
+      <c r="G180">
+        <v>4841322.637566648</v>
+      </c>
+      <c r="H180">
+        <v>3985951.630355308</v>
+      </c>
+      <c r="I180">
+        <v>1115567.812492377</v>
+      </c>
+      <c r="J180">
+        <v>4842306.397739825</v>
+      </c>
+      <c r="K180">
+        <v>3987544.555411225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>35</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116429.675838279</v>
+      </c>
+      <c r="G181">
+        <v>4841339.150385587</v>
+      </c>
+      <c r="H181">
+        <v>3985975.527240972</v>
+      </c>
+      <c r="I181">
+        <v>1115614.826098539</v>
+      </c>
+      <c r="J181">
+        <v>4842257.746076202</v>
+      </c>
+      <c r="K181">
+        <v>3987560.526819782</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>35</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116427.201442544</v>
+      </c>
+      <c r="G182">
+        <v>4841355.663204527</v>
+      </c>
+      <c r="H182">
+        <v>3985997.660229253</v>
+      </c>
+      <c r="I182">
+        <v>1115662.9973715</v>
+      </c>
+      <c r="J182">
+        <v>4842209.09441258</v>
+      </c>
+      <c r="K182">
+        <v>3987561.349596002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>35</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116424.977807197</v>
+      </c>
+      <c r="G183">
+        <v>4841372.176023466</v>
+      </c>
+      <c r="H183">
+        <v>3986018.271912723</v>
+      </c>
+      <c r="I183">
+        <v>1115712.354817742</v>
+      </c>
+      <c r="J183">
+        <v>4842160.442748957</v>
+      </c>
+      <c r="K183">
+        <v>3987547.023739884</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>35</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116422.965305059</v>
+      </c>
+      <c r="G184">
+        <v>4841388.688842405</v>
+      </c>
+      <c r="H184">
+        <v>3986037.558041499</v>
+      </c>
+      <c r="I184">
+        <v>1115762.927645688</v>
+      </c>
+      <c r="J184">
+        <v>4842111.791085334</v>
+      </c>
+      <c r="K184">
+        <v>3987517.549251429</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>35</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.132546085</v>
+      </c>
+      <c r="G185">
+        <v>4841405.201661344</v>
+      </c>
+      <c r="H185">
+        <v>3986055.67885721</v>
+      </c>
+      <c r="I185">
+        <v>1115814.745782997</v>
+      </c>
+      <c r="J185">
+        <v>4842063.139421713</v>
+      </c>
+      <c r="K185">
+        <v>3987472.926130636</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>35</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.45430135</v>
+      </c>
+      <c r="G186">
+        <v>4841421.714480283</v>
+      </c>
+      <c r="H186">
+        <v>3986072.767193687</v>
+      </c>
+      <c r="I186">
+        <v>1115867.839894266</v>
+      </c>
+      <c r="J186">
+        <v>4842014.487758089</v>
+      </c>
+      <c r="K186">
+        <v>3987413.154377506</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>35</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116417.910032077</v>
+      </c>
+      <c r="G187">
+        <v>4841438.227299222</v>
+      </c>
+      <c r="H187">
+        <v>3986088.934391703</v>
+      </c>
+      <c r="I187">
+        <v>1115922.241399179</v>
+      </c>
+      <c r="J187">
+        <v>4841965.836094467</v>
+      </c>
+      <c r="K187">
+        <v>3987338.233992037</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>35</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.482825959</v>
+      </c>
+      <c r="G188">
+        <v>4841454.740118161</v>
+      </c>
+      <c r="H188">
+        <v>3986104.27469953</v>
+      </c>
+      <c r="I188">
+        <v>1115977.982491101</v>
+      </c>
+      <c r="J188">
+        <v>4841917.184430844</v>
+      </c>
+      <c r="K188">
+        <v>3987248.164974233</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>35</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.158613973</v>
+      </c>
+      <c r="G189">
+        <v>4841471.2529371</v>
+      </c>
+      <c r="H189">
+        <v>3986118.868601886</v>
+      </c>
+      <c r="I189">
+        <v>1116035.096156132</v>
+      </c>
+      <c r="J189">
+        <v>4841868.532767222</v>
+      </c>
+      <c r="K189">
+        <v>3987142.947324089</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>35</v>
+      </c>
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116413.925584331</v>
+      </c>
+      <c r="G190">
+        <v>4841487.765756039</v>
+      </c>
+      <c r="H190">
+        <v>3986132.785375948</v>
+      </c>
+      <c r="I190">
+        <v>1116093.61619262</v>
+      </c>
+      <c r="J190">
+        <v>4841819.881103599</v>
+      </c>
+      <c r="K190">
+        <v>3987022.581041609</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>35</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116412.773737519</v>
+      </c>
+      <c r="G191">
+        <v>4841504.278574979</v>
+      </c>
+      <c r="H191">
+        <v>3986146.085080244</v>
+      </c>
+      <c r="I191">
+        <v>1116153.57723117</v>
+      </c>
+      <c r="J191">
+        <v>4841771.229439977</v>
+      </c>
+      <c r="K191">
+        <v>3986887.06612679</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>35</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116411.694543987</v>
+      </c>
+      <c r="G192">
+        <v>4841520.791393917</v>
+      </c>
+      <c r="H192">
+        <v>3986158.820121044</v>
+      </c>
+      <c r="I192">
+        <v>1116215.01475513</v>
+      </c>
+      <c r="J192">
+        <v>4841722.577776354</v>
+      </c>
+      <c r="K192">
+        <v>3986736.402579635</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>35</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116410.680677647</v>
+      </c>
+      <c r="G193">
+        <v>4841537.304212856</v>
+      </c>
+      <c r="H193">
+        <v>3986171.036499569</v>
+      </c>
+      <c r="I193">
+        <v>1116277.965121597</v>
+      </c>
+      <c r="J193">
+        <v>4841673.926112732</v>
+      </c>
+      <c r="K193">
+        <v>3986570.590400142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>35</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116409.72580611</v>
+      </c>
+      <c r="G194">
+        <v>4841553.817031795</v>
+      </c>
+      <c r="H194">
+        <v>3986182.77481502</v>
+      </c>
+      <c r="I194">
+        <v>1116342.465582924</v>
+      </c>
+      <c r="J194">
+        <v>4841625.274449108</v>
+      </c>
+      <c r="K194">
+        <v>3986389.629588311</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>35</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116408.824423923</v>
+      </c>
+      <c r="G195">
+        <v>4841570.329850734</v>
+      </c>
+      <c r="H195">
+        <v>3986194.071078639</v>
+      </c>
+      <c r="I195">
+        <v>1116408.554308772</v>
+      </c>
+      <c r="J195">
+        <v>4841576.622785486</v>
+      </c>
+      <c r="K195">
+        <v>3986193.520144143</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>35</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116407.971718777</v>
+      </c>
+      <c r="G196">
+        <v>4841586.842669674</v>
+      </c>
+      <c r="H196">
+        <v>3986204.957379977</v>
+      </c>
+      <c r="I196">
+        <v>1116476.270408694</v>
+      </c>
+      <c r="J196">
+        <v>4841527.971121863</v>
+      </c>
+      <c r="K196">
+        <v>3985982.262067636</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>35</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.163463235</v>
+      </c>
+      <c r="G197">
+        <v>4841603.355488612</v>
+      </c>
+      <c r="H197">
+        <v>3986215.462436446</v>
+      </c>
+      <c r="I197">
+        <v>1116545.653955279</v>
+      </c>
+      <c r="J197">
+        <v>4841479.319458242</v>
+      </c>
+      <c r="K197">
+        <v>3985755.855358793</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>35</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.395926436</v>
+      </c>
+      <c r="G198">
+        <v>4841619.868307552</v>
+      </c>
+      <c r="H198">
+        <v>3986225.612049848</v>
+      </c>
+      <c r="I198">
+        <v>1116616.746007867</v>
+      </c>
+      <c r="J198">
+        <v>4841430.667794618</v>
+      </c>
+      <c r="K198">
+        <v>3985514.300017612</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>35</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116405.665801559</v>
+      </c>
+      <c r="G199">
+        <v>4841636.381126491</v>
+      </c>
+      <c r="H199">
+        <v>3986235.429488186</v>
+      </c>
+      <c r="I199">
+        <v>1116689.588636846</v>
+      </c>
+      <c r="J199">
+        <v>4841382.016130996</v>
+      </c>
+      <c r="K199">
+        <v>3985257.596044093</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>35</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116404.970145819</v>
+      </c>
+      <c r="G200">
+        <v>4841652.893945429</v>
+      </c>
+      <c r="H200">
+        <v>3986244.935806929</v>
+      </c>
+      <c r="I200">
+        <v>1116764.22494855</v>
+      </c>
+      <c r="J200">
+        <v>4841333.364467373</v>
+      </c>
+      <c r="K200">
+        <v>3984985.743438237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>35</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116404.306330532</v>
+      </c>
+      <c r="G201">
+        <v>4841669.406764369</v>
+      </c>
+      <c r="H201">
+        <v>3986254.150120946</v>
+      </c>
+      <c r="I201">
+        <v>1116840.699110765</v>
+      </c>
+      <c r="J201">
+        <v>4841284.712803751</v>
+      </c>
+      <c r="K201">
+        <v>3984698.742200044</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>35</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116403.67199929</v>
+      </c>
+      <c r="G202">
+        <v>4841685.919583309</v>
+      </c>
+      <c r="H202">
+        <v>3986263.089835879</v>
+      </c>
+      <c r="I202">
+        <v>1116919.05637887</v>
+      </c>
+      <c r="J202">
+        <v>4841236.061140127</v>
+      </c>
+      <c r="K202">
+        <v>3984396.592329513</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>35</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.065032759</v>
+      </c>
+      <c r="G203">
+        <v>4841702.432402248</v>
+      </c>
+      <c r="H203">
+        <v>3986271.770846052</v>
+      </c>
+      <c r="I203">
+        <v>1116999.343122615</v>
+      </c>
+      <c r="J203">
+        <v>4841187.409476506</v>
+      </c>
+      <c r="K203">
+        <v>3984079.293826644</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>35</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.483518869</v>
+      </c>
+      <c r="G204">
+        <v>4841718.945221187</v>
+      </c>
+      <c r="H204">
+        <v>3986280.20770452</v>
+      </c>
+      <c r="I204">
+        <v>1117081.606853561</v>
+      </c>
+      <c r="J204">
+        <v>4841138.757812883</v>
+      </c>
+      <c r="K204">
+        <v>3983746.846691438</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>35</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" t="s">
+        <v>22</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116401.925727472</v>
+      </c>
+      <c r="G205">
+        <v>4841735.458040125</v>
+      </c>
+      <c r="H205">
+        <v>3986288.413769871</v>
+      </c>
+      <c r="I205">
+        <v>1117165.896253202</v>
+      </c>
+      <c r="J205">
+        <v>4841090.10614926</v>
+      </c>
+      <c r="K205">
+        <v>3983399.250923893</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>35</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116401.390088681</v>
+      </c>
+      <c r="G206">
+        <v>4841751.970859065</v>
+      </c>
+      <c r="H206">
+        <v>3986296.401333464</v>
+      </c>
+      <c r="I206">
+        <v>1117252.261201763</v>
+      </c>
+      <c r="J206">
+        <v>4841041.454485637</v>
+      </c>
+      <c r="K206">
+        <v>3983036.506524012</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>35</v>
+      </c>
+      <c r="B207" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116400.875174275</v>
+      </c>
+      <c r="G207">
+        <v>4841768.483678004</v>
+      </c>
+      <c r="H207">
+        <v>3986304.181730169</v>
+      </c>
+      <c r="I207">
+        <v>1117340.752807729</v>
+      </c>
+      <c r="J207">
+        <v>4840992.802822015</v>
+      </c>
+      <c r="K207">
+        <v>3982658.613491793</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>35</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116400.379681682</v>
+      </c>
+      <c r="G208">
+        <v>4841784.996496943</v>
+      </c>
+      <c r="H208">
+        <v>3986311.765435111</v>
+      </c>
+      <c r="I208">
+        <v>1117431.423438081</v>
+      </c>
+      <c r="J208">
+        <v>4840944.151158392</v>
+      </c>
+      <c r="K208">
+        <v>3982265.571827237</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>35</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116399.90242012</v>
+      </c>
+      <c r="G209">
+        <v>4841801.509315882</v>
+      </c>
+      <c r="H209">
+        <v>3986319.162148473</v>
+      </c>
+      <c r="I209">
+        <v>1117524.326749289</v>
+      </c>
+      <c r="J209">
+        <v>4840895.49949477</v>
+      </c>
+      <c r="K209">
+        <v>3981857.381530343</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>35</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.442298553</v>
+      </c>
+      <c r="G210">
+        <v>4841818.022134821</v>
+      </c>
+      <c r="H210">
+        <v>3986326.3808701</v>
+      </c>
+      <c r="I210">
+        <v>1117619.517719067</v>
+      </c>
+      <c r="J210">
+        <v>4840846.847831147</v>
+      </c>
+      <c r="K210">
+        <v>3981434.042601111</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>35</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116398.998315205</v>
+      </c>
+      <c r="G211">
+        <v>4841834.53495376</v>
+      </c>
+      <c r="H211">
+        <v>3986333.42996534</v>
+      </c>
+      <c r="I211">
+        <v>1117717.052678901</v>
+      </c>
+      <c r="J211">
+        <v>4840798.196167525</v>
+      </c>
+      <c r="K211">
+        <v>3980995.555039542</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>35</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116398.569548387</v>
+      </c>
+      <c r="G212">
+        <v>4841851.047772699</v>
+      </c>
+      <c r="H212">
+        <v>3986340.317223314</v>
+      </c>
+      <c r="I212">
+        <v>1117816.989347392</v>
+      </c>
+      <c r="J212">
+        <v>4840749.544503902</v>
+      </c>
+      <c r="K212">
+        <v>3980541.918845635</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>35</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.155148449</v>
+      </c>
+      <c r="G213">
+        <v>4841867.560591639</v>
+      </c>
+      <c r="H213">
+        <v>3986347.049908659</v>
+      </c>
+      <c r="I213">
+        <v>1117919.386864403</v>
+      </c>
+      <c r="J213">
+        <v>4840700.892840279</v>
+      </c>
+      <c r="K213">
+        <v>3980073.134019391</v>
       </c>
     </row>
   </sheetData>
